--- a/data/summary.xlsx
+++ b/data/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Git\VitaTracer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97ED43C6-9A13-4615-B498-DF0DC41733DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97077C2-04EC-4297-8DC0-936800C09FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FE37573-B430-462E-8B71-BEB2CD0D5C54}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="143">
   <si>
     <t>Min</t>
   </si>
@@ -464,6 +464,9 @@
   </si>
   <si>
     <t>Glomerular filtration rate (GFR) via CDK EPI</t>
+  </si>
+  <si>
+    <t>2023/12/27</t>
   </si>
 </sst>
 </file>
@@ -886,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46A3802-283E-4E98-BCAF-1BECEA2B901B}">
-  <dimension ref="A1:L289"/>
+  <dimension ref="A1:L290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C197" sqref="C197"/>
+    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3941,13 +3944,13 @@
         <v>4</v>
       </c>
       <c r="F117" s="3">
-        <v>3.76</v>
+        <v>20</v>
       </c>
       <c r="G117" s="3">
         <v>11</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -3958,22 +3961,22 @@
         <v>63</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E118" s="3">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F118" s="3">
-        <v>32.200000000000003</v>
+        <v>3.76</v>
       </c>
       <c r="G118" s="3">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -3993,13 +3996,13 @@
         <v>20</v>
       </c>
       <c r="F119" s="3">
-        <v>34.4</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="G119" s="3">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4016,16 +4019,16 @@
         <v>7</v>
       </c>
       <c r="E120" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F120" s="3">
-        <v>36.4</v>
+        <v>34.4</v>
       </c>
       <c r="G120" s="3">
         <v>50</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4038,20 +4041,20 @@
       <c r="C121" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E121" s="3">
         <v>15</v>
       </c>
       <c r="F121" s="3">
-        <v>34.1</v>
+        <v>36.4</v>
       </c>
       <c r="G121" s="3">
         <v>50</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4064,20 +4067,20 @@
       <c r="C122" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E122" s="3">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F122" s="3">
-        <v>33.4</v>
+        <v>34.1</v>
       </c>
       <c r="G122" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4094,16 +4097,16 @@
         <v>7</v>
       </c>
       <c r="E123" s="3">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F123" s="3">
-        <v>40.4</v>
+        <v>33.4</v>
       </c>
       <c r="G123" s="3">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -4117,19 +4120,19 @@
         <v>13</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E124" s="3">
-        <v>0.84</v>
+        <v>16</v>
       </c>
       <c r="F124" s="3">
-        <v>1.3846000000000001</v>
+        <v>40.4</v>
       </c>
       <c r="G124" s="3">
-        <v>5.1749999999999998</v>
+        <v>45</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -4146,16 +4149,16 @@
         <v>49</v>
       </c>
       <c r="E125" s="3">
-        <v>1.2</v>
+        <v>0.84</v>
       </c>
       <c r="F125" s="3">
-        <v>1.3</v>
+        <v>1.3846000000000001</v>
       </c>
       <c r="G125" s="3">
-        <v>3.5</v>
+        <v>5.1749999999999998</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -4172,16 +4175,16 @@
         <v>49</v>
       </c>
       <c r="E126" s="3">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="F126" s="3">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="G126" s="3">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -4201,13 +4204,13 @@
         <v>1.5</v>
       </c>
       <c r="F127" s="3">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="G127" s="3">
         <v>4.8</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -4224,16 +4227,16 @@
         <v>49</v>
       </c>
       <c r="E128" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F128" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G128" s="3">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -4250,16 +4253,16 @@
         <v>49</v>
       </c>
       <c r="E129" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" s="3">
-        <v>1.5189999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G129" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -4270,22 +4273,22 @@
         <v>63</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E130" s="3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F130" s="3">
-        <v>6.7</v>
+        <v>1.5189999999999999</v>
       </c>
       <c r="G130" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -4302,16 +4305,16 @@
         <v>7</v>
       </c>
       <c r="E131" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="F131" s="3">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="G131" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -4328,16 +4331,16 @@
         <v>7</v>
       </c>
       <c r="E132" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F132" s="3">
-        <v>5.0999999999999996</v>
+        <v>7.9</v>
       </c>
       <c r="G132" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -4350,20 +4353,20 @@
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D133" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E133" s="3">
         <v>1</v>
       </c>
       <c r="F133" s="3">
-        <v>4.9000000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G133" s="3">
         <v>10</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -4376,20 +4379,20 @@
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E134" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" s="3">
-        <v>9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G134" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -4415,7 +4418,7 @@
         <v>12</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -4429,19 +4432,19 @@
         <v>12</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E136" s="3">
-        <v>4.2000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="F136" s="3">
-        <v>0.2281</v>
+        <v>9</v>
       </c>
       <c r="G136" s="3">
-        <v>0.95</v>
+        <v>12</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -4458,16 +4461,16 @@
         <v>49</v>
       </c>
       <c r="E137" s="3">
-        <v>0.1</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F137" s="3">
-        <v>0.3</v>
+        <v>0.2281</v>
       </c>
       <c r="G137" s="3">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -4484,16 +4487,16 @@
         <v>49</v>
       </c>
       <c r="E138" s="3">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F138" s="3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G138" s="3">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -4519,7 +4522,7 @@
         <v>0.92</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -4536,16 +4539,16 @@
         <v>49</v>
       </c>
       <c r="E140" s="3">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F140" s="3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G140" s="3">
-        <v>1.2</v>
+        <v>0.92</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -4562,16 +4565,16 @@
         <v>49</v>
       </c>
       <c r="E141" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F141" s="3">
-        <v>0.33800000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G141" s="3">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -4582,22 +4585,22 @@
         <v>63</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E142" s="3">
-        <v>45</v>
+        <v>0.2</v>
       </c>
       <c r="F142" s="3">
-        <v>58.8</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="G142" s="3">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -4614,16 +4617,16 @@
         <v>7</v>
       </c>
       <c r="E143" s="3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F143" s="3">
-        <v>54</v>
+        <v>58.8</v>
       </c>
       <c r="G143" s="3">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -4640,16 +4643,16 @@
         <v>7</v>
       </c>
       <c r="E144" s="3">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F144" s="3">
-        <v>51.4</v>
+        <v>54</v>
       </c>
       <c r="G144" s="3">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -4666,16 +4669,16 @@
         <v>7</v>
       </c>
       <c r="E145" s="3">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F145" s="3">
-        <v>48</v>
+        <v>51.4</v>
       </c>
       <c r="G145" s="3">
         <v>70</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -4689,19 +4692,19 @@
         <v>14</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E146" s="3">
-        <v>1.89</v>
+        <v>35</v>
       </c>
       <c r="F146" s="3">
-        <v>2.5284</v>
+        <v>48</v>
       </c>
       <c r="G146" s="3">
-        <v>8.5749999999999993</v>
+        <v>70</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -4718,16 +4721,16 @@
         <v>49</v>
       </c>
       <c r="E147" s="3">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="F147" s="3">
-        <v>2.1</v>
+        <v>2.5284</v>
       </c>
       <c r="G147" s="3">
-        <v>7</v>
+        <v>8.5749999999999993</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -4747,13 +4750,13 @@
         <v>2</v>
       </c>
       <c r="F148" s="3">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="G148" s="3">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -4770,16 +4773,16 @@
         <v>49</v>
       </c>
       <c r="E149" s="3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="F149" s="3">
-        <v>1.8049999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="G149" s="3">
         <v>7.5</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -4787,22 +4790,22 @@
         <v>60</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E150" s="3">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="F150" s="3">
-        <v>2.81</v>
+        <v>1.8049999999999999</v>
       </c>
       <c r="G150" s="3">
-        <v>3.91</v>
+        <v>7.5</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>5</v>
@@ -4816,19 +4819,19 @@
         <v>107</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E151" s="3">
-        <v>0.71</v>
+        <v>1.58</v>
       </c>
       <c r="F151" s="3">
-        <v>1.2</v>
+        <v>2.81</v>
       </c>
       <c r="G151" s="3">
-        <v>1.85</v>
+        <v>3.91</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>5</v>
@@ -4848,16 +4851,16 @@
         <v>47</v>
       </c>
       <c r="E152" s="3">
-        <v>0.69920000000000004</v>
+        <v>0.71</v>
       </c>
       <c r="F152" s="3">
-        <v>1.0566</v>
+        <v>1.2</v>
       </c>
       <c r="G152" s="3">
-        <v>1.4761</v>
+        <v>1.85</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -4868,22 +4871,22 @@
         <v>107</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E153" s="3">
-        <v>0.47</v>
+        <v>0.69920000000000004</v>
       </c>
       <c r="F153" s="3">
-        <v>7.16</v>
+        <v>1.0566</v>
       </c>
       <c r="G153" s="3">
-        <v>9.8000000000000007</v>
+        <v>1.4761</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -4894,22 +4897,22 @@
         <v>107</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="E154" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.47</v>
       </c>
       <c r="F154" s="3">
-        <v>1.984</v>
+        <v>7.16</v>
       </c>
       <c r="G154" s="3">
-        <v>4.78</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -4926,16 +4929,16 @@
         <v>98</v>
       </c>
       <c r="E155" s="3">
-        <v>0.3</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F155" s="3">
-        <v>0.67</v>
+        <v>1.984</v>
       </c>
       <c r="G155" s="3">
-        <v>4.3</v>
+        <v>4.78</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -4955,13 +4958,13 @@
         <v>0.3</v>
       </c>
       <c r="F156" s="3">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="G156" s="3">
         <v>4.3</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -4978,16 +4981,16 @@
         <v>98</v>
       </c>
       <c r="E157" s="3">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F157" s="3">
-        <v>0.72</v>
+        <v>0.53</v>
       </c>
       <c r="G157" s="3">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -4995,25 +4998,25 @@
         <v>60</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="E158" s="3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F158" s="3">
-        <v>2</v>
+        <v>0.72</v>
       </c>
       <c r="G158" s="3">
-        <v>12</v>
+        <v>3.7</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5024,22 +5027,22 @@
         <v>103</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="E159" s="3">
         <v>0</v>
       </c>
       <c r="F159" s="3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G159" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5059,13 +5062,13 @@
         <v>0</v>
       </c>
       <c r="F160" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G160" s="3">
         <v>5</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -5078,20 +5081,20 @@
       <c r="C161" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D161" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E161" s="3">
         <v>0</v>
       </c>
       <c r="F161" s="3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G161" s="3">
         <v>5</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -5104,20 +5107,20 @@
       <c r="C162" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D162" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E162" s="3">
         <v>0</v>
       </c>
       <c r="F162" s="3">
-        <v>0.61</v>
+        <v>0.4</v>
       </c>
       <c r="G162" s="3">
         <v>5</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -5125,25 +5128,25 @@
         <v>60</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E163" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F163" s="3">
-        <v>100</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>41</v>
+        <v>0.61</v>
+      </c>
+      <c r="G163" s="3">
+        <v>5</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -5163,13 +5166,13 @@
         <v>90</v>
       </c>
       <c r="F164" s="3">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -5189,13 +5192,13 @@
         <v>90</v>
       </c>
       <c r="F165" s="3">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -5206,22 +5209,22 @@
         <v>139</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="E166" s="3">
-        <v>0.8</v>
+        <v>90</v>
       </c>
       <c r="F166" s="3">
-        <v>1.03</v>
-      </c>
-      <c r="G166" s="3">
-        <v>1.25</v>
+        <v>124</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -5238,16 +5241,16 @@
         <v>33</v>
       </c>
       <c r="E167" s="3">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F167" s="3">
-        <v>0.99</v>
+        <v>1.03</v>
       </c>
       <c r="G167" s="3">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -5264,16 +5267,16 @@
         <v>33</v>
       </c>
       <c r="E168" s="3">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="F168" s="3">
-        <v>0.8</v>
+        <v>0.99</v>
       </c>
       <c r="G168" s="3">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -5290,16 +5293,16 @@
         <v>33</v>
       </c>
       <c r="E169" s="3">
-        <v>0.59889999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="F169" s="3">
-        <v>1.0283</v>
+        <v>0.8</v>
       </c>
       <c r="G169" s="3">
-        <v>1.2429999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -5316,16 +5319,16 @@
         <v>33</v>
       </c>
       <c r="E170" s="3">
-        <v>0.49719999999999998</v>
+        <v>0.59889999999999999</v>
       </c>
       <c r="F170" s="3">
-        <v>0.96049999999999991</v>
+        <v>1.0283</v>
       </c>
       <c r="G170" s="3">
-        <v>1.1752</v>
+        <v>1.2429999999999999</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -5342,16 +5345,16 @@
         <v>33</v>
       </c>
       <c r="E171" s="3">
-        <v>0.59889999999999999</v>
+        <v>0.49719999999999998</v>
       </c>
       <c r="F171" s="3">
-        <v>0.73449999999999993</v>
+        <v>0.96049999999999991</v>
       </c>
       <c r="G171" s="3">
-        <v>1.2994999999999999</v>
+        <v>1.1752</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -5359,25 +5362,25 @@
         <v>60</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E172" s="3">
-        <v>130</v>
+        <v>0.59889999999999999</v>
       </c>
       <c r="F172" s="3">
-        <v>159</v>
+        <v>0.73449999999999993</v>
       </c>
       <c r="G172" s="3">
-        <v>220</v>
+        <v>1.2994999999999999</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -5394,16 +5397,16 @@
         <v>33</v>
       </c>
       <c r="E173" s="3">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F173" s="3">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="G173" s="3">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -5420,16 +5423,16 @@
         <v>33</v>
       </c>
       <c r="E174" s="3">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="F174" s="3">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="G174" s="3">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -5449,13 +5452,13 @@
         <v>0</v>
       </c>
       <c r="F175" s="3">
-        <v>149.24690000000001</v>
+        <v>120</v>
       </c>
       <c r="G175" s="3">
-        <v>212.65750000000003</v>
+        <v>200</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -5475,13 +5478,13 @@
         <v>0</v>
       </c>
       <c r="F176" s="3">
-        <v>111.74185000000003</v>
+        <v>149.24690000000001</v>
       </c>
       <c r="G176" s="3">
         <v>212.65750000000003</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -5501,13 +5504,13 @@
         <v>0</v>
       </c>
       <c r="F177" s="3">
-        <v>150.79350000000002</v>
+        <v>111.74185000000003</v>
       </c>
       <c r="G177" s="3">
-        <v>193.32500000000005</v>
+        <v>212.65750000000003</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -5518,22 +5521,22 @@
         <v>105</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E178" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F178" s="3">
-        <v>52</v>
-      </c>
-      <c r="G178" s="3" t="s">
-        <v>41</v>
+        <v>150.79350000000002</v>
+      </c>
+      <c r="G178" s="3">
+        <v>193.32500000000005</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -5550,16 +5553,16 @@
         <v>33</v>
       </c>
       <c r="E179" s="3">
-        <v>38.665000000000006</v>
+        <v>40</v>
       </c>
       <c r="F179" s="3">
-        <v>40.211600000000011</v>
+        <v>52</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -5579,13 +5582,13 @@
         <v>38.665000000000006</v>
       </c>
       <c r="F180" s="3">
-        <v>40.598250000000007</v>
+        <v>40.211600000000011</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -5605,13 +5608,13 @@
         <v>38.665000000000006</v>
       </c>
       <c r="F181" s="3">
-        <v>50.264500000000012</v>
+        <v>40.598250000000007</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -5622,22 +5625,22 @@
         <v>105</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E182" s="3">
-        <v>0</v>
+        <v>38.665000000000006</v>
       </c>
       <c r="F182" s="3">
-        <v>59</v>
-      </c>
-      <c r="G182" s="3">
-        <v>130</v>
+        <v>50.264500000000012</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -5657,13 +5660,13 @@
         <v>0</v>
       </c>
       <c r="F183" s="3">
-        <v>98.982400000000013</v>
+        <v>59</v>
       </c>
       <c r="G183" s="3">
-        <v>115.99500000000002</v>
+        <v>130</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -5683,13 +5686,13 @@
         <v>0</v>
       </c>
       <c r="F184" s="3">
-        <v>63.410600000000009</v>
+        <v>98.982400000000013</v>
       </c>
       <c r="G184" s="3">
         <v>115.99500000000002</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -5709,13 +5712,13 @@
         <v>0</v>
       </c>
       <c r="F185" s="3">
-        <v>88.929500000000004</v>
+        <v>63.410600000000009</v>
       </c>
       <c r="G185" s="3">
-        <v>112.12850000000002</v>
+        <v>115.99500000000002</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -5726,22 +5729,22 @@
         <v>105</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E186" s="3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F186" s="3">
-        <v>55</v>
+        <v>88.929500000000004</v>
       </c>
       <c r="G186" s="3">
-        <v>185</v>
+        <v>112.12850000000002</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -5758,16 +5761,16 @@
         <v>33</v>
       </c>
       <c r="E187" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F187" s="3">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G187" s="3">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -5787,13 +5790,13 @@
         <v>0</v>
       </c>
       <c r="F188" s="3">
-        <v>50.444999999999993</v>
+        <v>47</v>
       </c>
       <c r="G188" s="3">
-        <v>150.44999999999999</v>
+        <v>150</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -5813,13 +5816,13 @@
         <v>0</v>
       </c>
       <c r="F189" s="3">
-        <v>38.94</v>
+        <v>50.444999999999993</v>
       </c>
       <c r="G189" s="3">
         <v>150.44999999999999</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -5839,13 +5842,13 @@
         <v>0</v>
       </c>
       <c r="F190" s="3">
-        <v>44.25</v>
+        <v>38.94</v>
       </c>
       <c r="G190" s="3">
         <v>150.44999999999999</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -5853,22 +5856,22 @@
         <v>60</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="E191" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F191" s="3">
-        <v>278</v>
+        <v>44.25</v>
       </c>
       <c r="G191" s="3">
-        <v>285</v>
+        <v>150.44999999999999</v>
       </c>
       <c r="H191" s="2" t="s">
         <v>67</v>
@@ -5882,22 +5885,22 @@
         <v>82</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="E192" s="3">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="F192" s="3">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c r="G192" s="3">
-        <v>105</v>
+        <v>285</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -5914,16 +5917,16 @@
         <v>33</v>
       </c>
       <c r="E193" s="3">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F193" s="3">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="G193" s="3">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -5940,16 +5943,16 @@
         <v>33</v>
       </c>
       <c r="E194" s="3">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F194" s="3">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G194" s="3">
         <v>110</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -5966,16 +5969,16 @@
         <v>33</v>
       </c>
       <c r="E195" s="3">
-        <v>70.262399999999985</v>
+        <v>60</v>
       </c>
       <c r="F195" s="3">
-        <v>88.278400000000005</v>
+        <v>88</v>
       </c>
       <c r="G195" s="3">
-        <v>109.89759999999998</v>
+        <v>110</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -5995,13 +5998,13 @@
         <v>70.262399999999985</v>
       </c>
       <c r="F196" s="3">
-        <v>75.667199999999994</v>
+        <v>88.278400000000005</v>
       </c>
       <c r="G196" s="3">
         <v>109.89759999999998</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -6009,25 +6012,25 @@
         <v>60</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E197" s="3">
-        <v>8.1999999999999993</v>
+        <v>70.262399999999985</v>
       </c>
       <c r="F197" s="3">
-        <v>9.6</v>
+        <v>75.667199999999994</v>
       </c>
       <c r="G197" s="3">
-        <v>10.6</v>
+        <v>109.89759999999998</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -6044,16 +6047,16 @@
         <v>33</v>
       </c>
       <c r="E198" s="3">
-        <v>8.4163800000000002</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F198" s="3">
-        <v>9.1377839999999981</v>
+        <v>9.6</v>
       </c>
       <c r="G198" s="3">
-        <v>10.42028</v>
+        <v>10.6</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -6073,13 +6076,13 @@
         <v>8.4163800000000002</v>
       </c>
       <c r="F199" s="3">
-        <v>9.899265999999999</v>
+        <v>9.1377839999999981</v>
       </c>
       <c r="G199" s="3">
-        <v>10.620669999999999</v>
+        <v>10.42028</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -6090,22 +6093,22 @@
         <v>106</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E200" s="3">
-        <v>95</v>
+        <v>8.4163800000000002</v>
       </c>
       <c r="F200" s="3">
-        <v>97</v>
+        <v>9.899265999999999</v>
       </c>
       <c r="G200" s="3">
-        <v>110</v>
+        <v>10.620669999999999</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -6118,20 +6121,20 @@
       <c r="C201" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D201" s="2" t="s">
+      <c r="D201" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E201" s="3">
         <v>95</v>
       </c>
       <c r="F201" s="3">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G201" s="3">
         <v>110</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -6142,22 +6145,22 @@
         <v>106</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>118</v>
+        <v>90</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E202" s="3">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F202" s="3">
-        <v>109.7</v>
+        <v>96</v>
       </c>
       <c r="G202" s="3">
-        <v>350</v>
+        <v>110</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -6177,13 +6180,13 @@
         <v>30</v>
       </c>
       <c r="F203" s="3">
-        <v>86.2</v>
+        <v>109.7</v>
       </c>
       <c r="G203" s="3">
         <v>350</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -6200,16 +6203,16 @@
         <v>118</v>
       </c>
       <c r="E204" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F204" s="3">
-        <v>92</v>
+        <v>86.2</v>
       </c>
       <c r="G204" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -6226,16 +6229,16 @@
         <v>118</v>
       </c>
       <c r="E205" s="3">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="F205" s="3">
-        <v>120.6</v>
+        <v>92</v>
       </c>
       <c r="G205" s="3">
         <v>300</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -6246,19 +6249,19 @@
         <v>106</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="E206" s="3">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="F206" s="3">
-        <v>96</v>
+        <v>120.6</v>
       </c>
       <c r="G206" s="3">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="H206" s="2" t="s">
         <v>5</v>
@@ -6278,16 +6281,16 @@
         <v>51</v>
       </c>
       <c r="E207" s="3">
-        <v>61.429500000000004</v>
+        <v>59</v>
       </c>
       <c r="F207" s="3">
-        <v>86.001300000000001</v>
+        <v>96</v>
       </c>
       <c r="G207" s="3">
-        <v>156.36600000000001</v>
+        <v>160</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -6298,22 +6301,22 @@
         <v>106</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E208" s="3">
-        <v>0.65</v>
+        <v>61.429500000000004</v>
       </c>
       <c r="F208" s="3">
-        <v>0.84</v>
+        <v>86.001300000000001</v>
       </c>
       <c r="G208" s="3">
-        <v>1.05</v>
+        <v>156.36600000000001</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -6326,20 +6329,20 @@
       <c r="C209" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="D209" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E209" s="3">
         <v>0.65</v>
       </c>
       <c r="F209" s="3">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="G209" s="3">
         <v>1.05</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -6352,20 +6355,20 @@
       <c r="C210" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="D210" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E210" s="3">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F210" s="3">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="G210" s="3">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -6376,19 +6379,19 @@
         <v>106</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E211" s="3">
-        <v>2.5</v>
+        <v>0.66</v>
       </c>
       <c r="F211" s="3">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="G211" s="3">
-        <v>5</v>
+        <v>1.07</v>
       </c>
       <c r="H211" s="2" t="s">
         <v>5</v>
@@ -6408,16 +6411,16 @@
         <v>33</v>
       </c>
       <c r="E212" s="3">
-        <v>2.6970000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="F212" s="3">
-        <v>3.7509999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="G212" s="3">
-        <v>4.4950000000000001</v>
+        <v>5</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -6437,13 +6440,13 @@
         <v>2.6970000000000001</v>
       </c>
       <c r="F213" s="3">
-        <v>3.6269999999999998</v>
+        <v>3.7509999999999999</v>
       </c>
       <c r="G213" s="3">
         <v>4.4950000000000001</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -6454,22 +6457,22 @@
         <v>106</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E214" s="3">
-        <v>3.5</v>
+        <v>2.6970000000000001</v>
       </c>
       <c r="F214" s="3">
-        <v>4.3899999999999997</v>
+        <v>3.6269999999999998</v>
       </c>
       <c r="G214" s="3">
-        <v>5.0999999999999996</v>
+        <v>4.4950000000000001</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -6489,13 +6492,13 @@
         <v>3.5</v>
       </c>
       <c r="F215" s="3">
-        <v>4</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="G215" s="3">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -6512,16 +6515,16 @@
         <v>35</v>
       </c>
       <c r="E216" s="3">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="F216" s="3">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G216" s="3">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -6538,16 +6541,16 @@
         <v>35</v>
       </c>
       <c r="E217" s="3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="F217" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="G217" s="3">
-        <v>5.0999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -6558,22 +6561,22 @@
         <v>106</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E218" s="3">
-        <v>136</v>
+        <v>3.5</v>
       </c>
       <c r="F218" s="3">
-        <v>140.19999999999999</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G218" s="3">
-        <v>146</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -6590,16 +6593,16 @@
         <v>35</v>
       </c>
       <c r="E219" s="3">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F219" s="3">
-        <v>140</v>
+        <v>140.19999999999999</v>
       </c>
       <c r="G219" s="3">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -6612,20 +6615,20 @@
       <c r="C220" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D220" s="2" t="s">
+      <c r="D220" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E220" s="3">
         <v>135</v>
       </c>
       <c r="F220" s="3">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G220" s="3">
         <v>145</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -6638,20 +6641,20 @@
       <c r="C221" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="D221" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E221" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F221" s="3">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G221" s="3">
         <v>145</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -6668,16 +6671,16 @@
         <v>35</v>
       </c>
       <c r="E222" s="3">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F222" s="3">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G222" s="3">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -6685,22 +6688,22 @@
         <v>60</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E223" s="3">
-        <v>0.2</v>
+        <v>135</v>
       </c>
       <c r="F223" s="3">
-        <v>1.2</v>
+        <v>139</v>
       </c>
       <c r="G223" s="3">
-        <v>1.2</v>
+        <v>147</v>
       </c>
       <c r="H223" s="2" t="s">
         <v>5</v>
@@ -6720,16 +6723,16 @@
         <v>33</v>
       </c>
       <c r="E224" s="3">
-        <v>0.2923</v>
+        <v>0.2</v>
       </c>
       <c r="F224" s="3">
-        <v>0.99980000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="G224" s="3">
-        <v>1.5201</v>
+        <v>1.2</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -6740,22 +6743,22 @@
         <v>127</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E225" s="3">
-        <v>0</v>
+        <v>0.2923</v>
       </c>
       <c r="F225" s="3">
-        <v>0.33</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="G225" s="3">
-        <v>0.3</v>
+        <v>1.5201</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -6766,7 +6769,7 @@
         <v>127</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>33</v>
@@ -6775,10 +6778,10 @@
         <v>0</v>
       </c>
       <c r="F226" s="3">
-        <v>0.53</v>
+        <v>0.33</v>
       </c>
       <c r="G226" s="3">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H226" s="2" t="s">
         <v>85</v>
@@ -6792,7 +6795,7 @@
         <v>127</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>33</v>
@@ -6801,10 +6804,10 @@
         <v>0</v>
       </c>
       <c r="F227" s="3">
-        <v>0.86</v>
+        <v>0.53</v>
       </c>
       <c r="G227" s="3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H227" s="2" t="s">
         <v>85</v>
@@ -6818,19 +6821,19 @@
         <v>127</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E228" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F228" s="3">
-        <v>15.6</v>
+        <v>0.86</v>
       </c>
       <c r="G228" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H228" s="2" t="s">
         <v>85</v>
@@ -6850,16 +6853,16 @@
         <v>35</v>
       </c>
       <c r="E229" s="3">
-        <v>5.46</v>
+        <v>5</v>
       </c>
       <c r="F229" s="3">
-        <v>10.55</v>
+        <v>15.6</v>
       </c>
       <c r="G229" s="3">
-        <v>16.2</v>
+        <v>15</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -6870,22 +6873,22 @@
         <v>127</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E230" s="3">
-        <v>35</v>
+        <v>5.46</v>
       </c>
       <c r="F230" s="3">
-        <v>46</v>
+        <v>10.55</v>
       </c>
       <c r="G230" s="3">
-        <v>52</v>
+        <v>16.2</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -6905,13 +6908,13 @@
         <v>35</v>
       </c>
       <c r="F231" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G231" s="3">
         <v>52</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -6922,19 +6925,19 @@
         <v>127</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>70</v>
       </c>
       <c r="E232" s="3">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F232" s="3">
-        <v>25.3</v>
+        <v>47</v>
       </c>
       <c r="G232" s="3">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H232" s="2" t="s">
         <v>67</v>
@@ -6948,22 +6951,22 @@
         <v>127</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>70</v>
       </c>
       <c r="E233" s="3">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F233" s="3">
-        <v>71</v>
+        <v>25.3</v>
       </c>
       <c r="G233" s="3">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -6980,16 +6983,16 @@
         <v>70</v>
       </c>
       <c r="E234" s="3">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F234" s="3">
-        <v>72.3</v>
+        <v>71</v>
       </c>
       <c r="G234" s="3">
         <v>83</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -6997,25 +7000,25 @@
         <v>60</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="E235" s="3">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="F235" s="3">
-        <v>0.43</v>
+        <v>72.3</v>
       </c>
       <c r="G235" s="3">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -7023,22 +7026,22 @@
         <v>60</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E236" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F236" s="3">
-        <v>11.2</v>
+        <v>0.43</v>
       </c>
       <c r="G236" s="3">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="H236" s="2" t="s">
         <v>5</v>
@@ -7052,22 +7055,22 @@
         <v>137</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E237" s="3">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F237" s="3">
-        <v>30</v>
+        <v>11.2</v>
       </c>
       <c r="G237" s="3">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -7084,16 +7087,16 @@
         <v>33</v>
       </c>
       <c r="E238" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F238" s="3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G238" s="3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -7110,16 +7113,16 @@
         <v>33</v>
       </c>
       <c r="E239" s="3">
-        <v>19.219200000000001</v>
+        <v>17</v>
       </c>
       <c r="F239" s="3">
-        <v>22.822800000000001</v>
+        <v>24</v>
       </c>
       <c r="G239" s="3">
-        <v>43.843800000000002</v>
+        <v>51</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -7130,22 +7133,22 @@
         <v>137</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E240" s="3">
-        <v>2.5</v>
+        <v>19.219200000000001</v>
       </c>
       <c r="F240" s="3">
-        <v>4.0999999999999996</v>
+        <v>22.822800000000001</v>
       </c>
       <c r="G240" s="3">
-        <v>7.5</v>
+        <v>43.843800000000002</v>
       </c>
       <c r="H240" s="2" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -7162,16 +7165,16 @@
         <v>33</v>
       </c>
       <c r="E241" s="3">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F241" s="3">
         <v>4.0999999999999996</v>
       </c>
       <c r="G241" s="3">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -7191,13 +7194,13 @@
         <v>3.5</v>
       </c>
       <c r="F242" s="3">
-        <v>4.9055999999999997</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G242" s="3">
-        <v>7.0559999999999992</v>
+        <v>7.2</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -7214,16 +7217,16 @@
         <v>33</v>
       </c>
       <c r="E243" s="3">
-        <v>3.5279999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="F243" s="3">
-        <v>4.1495999999999995</v>
+        <v>4.9055999999999997</v>
       </c>
       <c r="G243" s="3">
         <v>7.0559999999999992</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
@@ -7243,39 +7246,39 @@
         <v>3.5279999999999996</v>
       </c>
       <c r="F244" s="3">
-        <v>3.9983999999999997</v>
+        <v>4.1495999999999995</v>
       </c>
       <c r="G244" s="3">
         <v>7.0559999999999992</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E245" s="3">
-        <v>0</v>
+        <v>3.5279999999999996</v>
       </c>
       <c r="F245" s="3">
-        <v>0</v>
+        <v>3.9983999999999997</v>
       </c>
       <c r="G245" s="3">
-        <v>0</v>
+        <v>7.0559999999999992</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -7301,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -7312,7 +7315,7 @@
         <v>54</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>33</v>
@@ -7327,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -7353,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -7364,22 +7367,22 @@
         <v>54</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E249" s="3">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="F249" s="3">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="G249" s="3">
-        <v>1030</v>
+        <v>0</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -7396,16 +7399,16 @@
         <v>70</v>
       </c>
       <c r="E250" s="3">
-        <v>1.0049999999999999</v>
+        <v>1010</v>
       </c>
       <c r="F250" s="3">
-        <v>1.024</v>
+        <v>1020</v>
       </c>
       <c r="G250" s="3">
-        <v>1.03</v>
+        <v>1030</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -7422,16 +7425,16 @@
         <v>70</v>
       </c>
       <c r="E251" s="3">
-        <v>1</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="F251" s="3">
-        <v>1.02</v>
+        <v>1.024</v>
       </c>
       <c r="G251" s="3">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -7442,22 +7445,22 @@
         <v>54</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="E252" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252" s="3">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="G252" s="3">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -7483,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
@@ -7509,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -7520,7 +7523,7 @@
         <v>54</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>33</v>
@@ -7535,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
@@ -7561,7 +7564,7 @@
         <v>0</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -7572,7 +7575,7 @@
         <v>54</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>33</v>
@@ -7587,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
@@ -7613,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
@@ -7624,10 +7627,10 @@
         <v>54</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E259" s="3">
         <v>0</v>
@@ -7639,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
@@ -7665,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
@@ -7691,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
@@ -7702,7 +7705,10 @@
         <v>54</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>57</v>
+        <v>140</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E262" s="3">
         <v>0</v>
@@ -7714,7 +7720,7 @@
         <v>0</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
@@ -7737,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -7760,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
@@ -7771,19 +7777,19 @@
         <v>54</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="E265" s="3">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F265" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G265" s="3">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="H265" s="2" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
@@ -7797,16 +7803,16 @@
         <v>83</v>
       </c>
       <c r="E266" s="3">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="F266" s="3">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="G266" s="3">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
@@ -7820,7 +7826,7 @@
         <v>83</v>
       </c>
       <c r="E267" s="3">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="F267" s="3">
         <v>5.5</v>
@@ -7829,7 +7835,7 @@
         <v>7.5</v>
       </c>
       <c r="H267" s="2" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
@@ -7840,22 +7846,19 @@
         <v>54</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="E268" s="3">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F268" s="3">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="G268" s="3">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
@@ -7866,7 +7869,7 @@
         <v>54</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>33</v>
@@ -7907,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="H270" s="2" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -7924,42 +7927,42 @@
         <v>33</v>
       </c>
       <c r="E271" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F271" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G271" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="E272" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F272" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G272" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H272" s="2" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
@@ -7970,19 +7973,19 @@
         <v>125</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="E273" s="3">
         <v>0</v>
       </c>
       <c r="F273" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G273" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H273" s="2" t="s">
         <v>111</v>
@@ -7996,22 +7999,22 @@
         <v>125</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="E274" s="3">
         <v>0</v>
       </c>
       <c r="F274" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G274" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H274" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
@@ -8037,7 +8040,7 @@
         <v>1</v>
       </c>
       <c r="H275" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
@@ -8048,7 +8051,7 @@
         <v>125</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>119</v>
@@ -8063,7 +8066,7 @@
         <v>1</v>
       </c>
       <c r="H276" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
@@ -8089,7 +8092,7 @@
         <v>1</v>
       </c>
       <c r="H277" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
@@ -8097,25 +8100,25 @@
         <v>60</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="E278" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F278" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G278" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H278" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
@@ -8135,13 +8138,13 @@
         <v>3</v>
       </c>
       <c r="F279" s="3">
-        <v>9.6</v>
+        <v>5</v>
       </c>
       <c r="G279" s="3">
         <v>17</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
@@ -8152,22 +8155,22 @@
         <v>104</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="E280" s="3">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="F280" s="3">
-        <v>116</v>
+        <v>9.6</v>
       </c>
       <c r="G280" s="3">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="H280" s="2" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
@@ -8178,22 +8181,22 @@
         <v>104</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="E281" s="3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F281" s="3">
-        <v>20.5</v>
+        <v>116</v>
       </c>
       <c r="G281" s="3">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="H281" s="2" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
@@ -8210,16 +8213,16 @@
         <v>19</v>
       </c>
       <c r="E282" s="3">
-        <v>20.03</v>
+        <v>30</v>
       </c>
       <c r="F282" s="3">
-        <v>17.2258</v>
+        <v>20.5</v>
       </c>
       <c r="G282" s="3">
-        <v>60.09</v>
+        <v>96</v>
       </c>
       <c r="H282" s="2" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
@@ -8239,13 +8242,13 @@
         <v>20.03</v>
       </c>
       <c r="F283" s="3">
-        <v>12.8192</v>
+        <v>17.2258</v>
       </c>
       <c r="G283" s="3">
         <v>60.09</v>
       </c>
       <c r="H283" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
@@ -8256,22 +8259,22 @@
         <v>104</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E284" s="3">
-        <v>200</v>
+        <v>20.03</v>
       </c>
       <c r="F284" s="3">
-        <v>419</v>
+        <v>12.8192</v>
       </c>
       <c r="G284" s="3">
-        <v>950</v>
+        <v>60.09</v>
       </c>
       <c r="H284" s="2" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
@@ -8288,16 +8291,16 @@
         <v>52</v>
       </c>
       <c r="E285" s="3">
-        <v>298.18799999999999</v>
+        <v>200</v>
       </c>
       <c r="F285" s="3">
-        <v>451.34819999999996</v>
-      </c>
-      <c r="G285" s="3" t="s">
-        <v>41</v>
+        <v>419</v>
+      </c>
+      <c r="G285" s="3">
+        <v>950</v>
       </c>
       <c r="H285" s="2" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
@@ -8317,23 +8320,49 @@
         <v>298.18799999999999</v>
       </c>
       <c r="F286" s="3">
-        <v>356.47019999999998</v>
+        <v>451.34819999999996</v>
       </c>
       <c r="G286" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H286" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E287" s="3">
+        <v>298.18799999999999</v>
+      </c>
+      <c r="F287" s="3">
+        <v>356.47019999999998</v>
+      </c>
+      <c r="G287" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H287" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H287" s="3"/>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H288" s="3"/>
     </row>
     <row r="289" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H289" s="3"/>
+    </row>
+    <row r="290" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H290" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{A46A3802-283E-4E98-BCAF-1BECEA2B901B}">
@@ -8342,7 +8371,7 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F150 F152:F168 F170:F272 F279:F1048576">
+  <conditionalFormatting sqref="F153:F169 F171:F273 F280:F1048576 F1:F151">
     <cfRule type="cellIs" dxfId="6" priority="4" operator="notBetween">
       <formula>$E1</formula>
       <formula>$G1</formula>
@@ -8360,27 +8389,27 @@
       <formula>$G109</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F136:F138 F129 F142">
+  <conditionalFormatting sqref="F137:F139 F130 F143">
     <cfRule type="cellIs" dxfId="3" priority="25" operator="notBetween">
-      <formula>$G129</formula>
+      <formula>$G130</formula>
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F164 F151">
+  <conditionalFormatting sqref="F165 F152">
     <cfRule type="cellIs" dxfId="2" priority="33" operator="notBetween">
-      <formula>$G151</formula>
+      <formula>$G152</formula>
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H287:H289">
+  <conditionalFormatting sqref="H288:H290">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="notBetween">
-      <formula>$E287</formula>
-      <formula>$G287</formula>
+      <formula>$E288</formula>
+      <formula>$G288</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F169">
+  <conditionalFormatting sqref="F170">
     <cfRule type="cellIs" dxfId="0" priority="36" operator="notBetween">
-      <formula>$E169</formula>
+      <formula>$E170</formula>
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/summary.xlsx
+++ b/data/summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Git\VitaTracer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97077C2-04EC-4297-8DC0-936800C09FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE5E319-F772-49B5-BCCE-6AA9F2B33044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FE37573-B430-462E-8B71-BEB2CD0D5C54}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5FE37573-B430-462E-8B71-BEB2CD0D5C54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="142">
   <si>
     <t>Min</t>
   </si>
@@ -464,9 +464,6 @@
   </si>
   <si>
     <t>Glomerular filtration rate (GFR) via CDK EPI</t>
-  </si>
-  <si>
-    <t>2023/12/27</t>
   </si>
 </sst>
 </file>
@@ -889,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46A3802-283E-4E98-BCAF-1BECEA2B901B}">
-  <dimension ref="A1:L290"/>
+  <dimension ref="A1:L289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117:XFD117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3944,13 +3941,13 @@
         <v>4</v>
       </c>
       <c r="F117" s="3">
-        <v>20</v>
+        <v>3.76</v>
       </c>
       <c r="G117" s="3">
         <v>11</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -3961,22 +3958,22 @@
         <v>63</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E118" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F118" s="3">
-        <v>3.76</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="G118" s="3">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -3996,13 +3993,13 @@
         <v>20</v>
       </c>
       <c r="F119" s="3">
-        <v>32.200000000000003</v>
+        <v>34.4</v>
       </c>
       <c r="G119" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4019,16 +4016,16 @@
         <v>7</v>
       </c>
       <c r="E120" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F120" s="3">
-        <v>34.4</v>
+        <v>36.4</v>
       </c>
       <c r="G120" s="3">
         <v>50</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4041,20 +4038,20 @@
       <c r="C121" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E121" s="3">
         <v>15</v>
       </c>
       <c r="F121" s="3">
-        <v>36.4</v>
+        <v>34.1</v>
       </c>
       <c r="G121" s="3">
         <v>50</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4067,20 +4064,20 @@
       <c r="C122" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E122" s="3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F122" s="3">
-        <v>34.1</v>
+        <v>33.4</v>
       </c>
       <c r="G122" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4097,16 +4094,16 @@
         <v>7</v>
       </c>
       <c r="E123" s="3">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F123" s="3">
-        <v>33.4</v>
+        <v>40.4</v>
       </c>
       <c r="G123" s="3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -4120,19 +4117,19 @@
         <v>13</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E124" s="3">
-        <v>16</v>
+        <v>0.84</v>
       </c>
       <c r="F124" s="3">
-        <v>40.4</v>
+        <v>1.3846000000000001</v>
       </c>
       <c r="G124" s="3">
-        <v>45</v>
+        <v>5.1749999999999998</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -4149,16 +4146,16 @@
         <v>49</v>
       </c>
       <c r="E125" s="3">
-        <v>0.84</v>
+        <v>1.2</v>
       </c>
       <c r="F125" s="3">
-        <v>1.3846000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="G125" s="3">
-        <v>5.1749999999999998</v>
+        <v>3.5</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -4175,16 +4172,16 @@
         <v>49</v>
       </c>
       <c r="E126" s="3">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F126" s="3">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="G126" s="3">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -4204,13 +4201,13 @@
         <v>1.5</v>
       </c>
       <c r="F127" s="3">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="G127" s="3">
         <v>4.8</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -4227,16 +4224,16 @@
         <v>49</v>
       </c>
       <c r="E128" s="3">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F128" s="3">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G128" s="3">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -4253,16 +4250,16 @@
         <v>49</v>
       </c>
       <c r="E129" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.5189999999999999</v>
       </c>
       <c r="G129" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -4273,22 +4270,22 @@
         <v>63</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E130" s="3">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F130" s="3">
-        <v>1.5189999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="G130" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -4305,16 +4302,16 @@
         <v>7</v>
       </c>
       <c r="E131" s="3">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="F131" s="3">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="G131" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -4331,16 +4328,16 @@
         <v>7</v>
       </c>
       <c r="E132" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F132" s="3">
-        <v>7.9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G132" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -4353,20 +4350,20 @@
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E133" s="3">
         <v>1</v>
       </c>
       <c r="F133" s="3">
-        <v>5.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G133" s="3">
         <v>10</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -4379,20 +4376,20 @@
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E134" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" s="3">
-        <v>4.9000000000000004</v>
+        <v>9</v>
       </c>
       <c r="G134" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -4418,7 +4415,7 @@
         <v>12</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -4432,19 +4429,19 @@
         <v>12</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E136" s="3">
-        <v>0</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F136" s="3">
-        <v>9</v>
+        <v>0.2281</v>
       </c>
       <c r="G136" s="3">
-        <v>12</v>
+        <v>0.95</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -4461,16 +4458,16 @@
         <v>49</v>
       </c>
       <c r="E137" s="3">
-        <v>4.2000000000000003E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F137" s="3">
-        <v>0.2281</v>
+        <v>0.3</v>
       </c>
       <c r="G137" s="3">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -4487,16 +4484,16 @@
         <v>49</v>
       </c>
       <c r="E138" s="3">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F138" s="3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G138" s="3">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -4522,7 +4519,7 @@
         <v>0.92</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -4539,16 +4536,16 @@
         <v>49</v>
       </c>
       <c r="E140" s="3">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F140" s="3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G140" s="3">
-        <v>0.92</v>
+        <v>1.2</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -4565,16 +4562,16 @@
         <v>49</v>
       </c>
       <c r="E141" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F141" s="3">
-        <v>0.3</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="G141" s="3">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -4585,22 +4582,22 @@
         <v>63</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E142" s="3">
-        <v>0.2</v>
+        <v>45</v>
       </c>
       <c r="F142" s="3">
-        <v>0.33800000000000002</v>
+        <v>58.8</v>
       </c>
       <c r="G142" s="3">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -4617,16 +4614,16 @@
         <v>7</v>
       </c>
       <c r="E143" s="3">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F143" s="3">
-        <v>58.8</v>
+        <v>54</v>
       </c>
       <c r="G143" s="3">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -4643,16 +4640,16 @@
         <v>7</v>
       </c>
       <c r="E144" s="3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F144" s="3">
-        <v>54</v>
+        <v>51.4</v>
       </c>
       <c r="G144" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -4669,16 +4666,16 @@
         <v>7</v>
       </c>
       <c r="E145" s="3">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F145" s="3">
-        <v>51.4</v>
+        <v>48</v>
       </c>
       <c r="G145" s="3">
         <v>70</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -4692,19 +4689,19 @@
         <v>14</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E146" s="3">
-        <v>35</v>
+        <v>1.89</v>
       </c>
       <c r="F146" s="3">
-        <v>48</v>
+        <v>2.5284</v>
       </c>
       <c r="G146" s="3">
-        <v>70</v>
+        <v>8.5749999999999993</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -4721,16 +4718,16 @@
         <v>49</v>
       </c>
       <c r="E147" s="3">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="F147" s="3">
-        <v>2.5284</v>
+        <v>2.1</v>
       </c>
       <c r="G147" s="3">
-        <v>8.5749999999999993</v>
+        <v>7</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -4750,13 +4747,13 @@
         <v>2</v>
       </c>
       <c r="F148" s="3">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="G148" s="3">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -4773,16 +4770,16 @@
         <v>49</v>
       </c>
       <c r="E149" s="3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="F149" s="3">
-        <v>1.7</v>
+        <v>1.8049999999999999</v>
       </c>
       <c r="G149" s="3">
         <v>7.5</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -4790,22 +4787,22 @@
         <v>60</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E150" s="3">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="F150" s="3">
-        <v>1.8049999999999999</v>
+        <v>2.81</v>
       </c>
       <c r="G150" s="3">
-        <v>7.5</v>
+        <v>3.91</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>5</v>
@@ -4819,19 +4816,19 @@
         <v>107</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E151" s="3">
-        <v>1.58</v>
+        <v>0.71</v>
       </c>
       <c r="F151" s="3">
-        <v>2.81</v>
+        <v>1.2</v>
       </c>
       <c r="G151" s="3">
-        <v>3.91</v>
+        <v>1.85</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>5</v>
@@ -4851,16 +4848,16 @@
         <v>47</v>
       </c>
       <c r="E152" s="3">
-        <v>0.71</v>
+        <v>0.69920000000000004</v>
       </c>
       <c r="F152" s="3">
-        <v>1.2</v>
+        <v>1.0566</v>
       </c>
       <c r="G152" s="3">
-        <v>1.85</v>
+        <v>1.4761</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -4871,22 +4868,22 @@
         <v>107</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E153" s="3">
-        <v>0.69920000000000004</v>
+        <v>0.47</v>
       </c>
       <c r="F153" s="3">
-        <v>1.0566</v>
+        <v>7.16</v>
       </c>
       <c r="G153" s="3">
-        <v>1.4761</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -4897,22 +4894,22 @@
         <v>107</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="E154" s="3">
-        <v>0.47</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F154" s="3">
-        <v>7.16</v>
+        <v>1.984</v>
       </c>
       <c r="G154" s="3">
-        <v>9.8000000000000007</v>
+        <v>4.78</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -4929,16 +4926,16 @@
         <v>98</v>
       </c>
       <c r="E155" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="F155" s="3">
-        <v>1.984</v>
+        <v>0.67</v>
       </c>
       <c r="G155" s="3">
-        <v>4.78</v>
+        <v>4.3</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -4958,13 +4955,13 @@
         <v>0.3</v>
       </c>
       <c r="F156" s="3">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="G156" s="3">
         <v>4.3</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -4981,16 +4978,16 @@
         <v>98</v>
       </c>
       <c r="E157" s="3">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F157" s="3">
-        <v>0.53</v>
+        <v>0.72</v>
       </c>
       <c r="G157" s="3">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -4998,25 +4995,25 @@
         <v>60</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="E158" s="3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F158" s="3">
-        <v>0.72</v>
+        <v>2</v>
       </c>
       <c r="G158" s="3">
-        <v>3.7</v>
+        <v>12</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5027,22 +5024,22 @@
         <v>103</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="E159" s="3">
         <v>0</v>
       </c>
       <c r="F159" s="3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G159" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5062,13 +5059,13 @@
         <v>0</v>
       </c>
       <c r="F160" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G160" s="3">
         <v>5</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -5081,20 +5078,20 @@
       <c r="C161" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D161" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E161" s="3">
         <v>0</v>
       </c>
       <c r="F161" s="3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G161" s="3">
         <v>5</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -5107,20 +5104,20 @@
       <c r="C162" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D162" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E162" s="3">
         <v>0</v>
       </c>
       <c r="F162" s="3">
-        <v>0.4</v>
+        <v>0.61</v>
       </c>
       <c r="G162" s="3">
         <v>5</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -5128,25 +5125,25 @@
         <v>60</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E163" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F163" s="3">
-        <v>0.61</v>
-      </c>
-      <c r="G163" s="3">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -5166,13 +5163,13 @@
         <v>90</v>
       </c>
       <c r="F164" s="3">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -5192,13 +5189,13 @@
         <v>90</v>
       </c>
       <c r="F165" s="3">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -5209,22 +5206,22 @@
         <v>139</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="E166" s="3">
-        <v>90</v>
+        <v>0.8</v>
       </c>
       <c r="F166" s="3">
-        <v>124</v>
-      </c>
-      <c r="G166" s="3" t="s">
-        <v>41</v>
+        <v>1.03</v>
+      </c>
+      <c r="G166" s="3">
+        <v>1.25</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -5241,16 +5238,16 @@
         <v>33</v>
       </c>
       <c r="E167" s="3">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F167" s="3">
-        <v>1.03</v>
+        <v>0.99</v>
       </c>
       <c r="G167" s="3">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -5267,16 +5264,16 @@
         <v>33</v>
       </c>
       <c r="E168" s="3">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="F168" s="3">
-        <v>0.99</v>
+        <v>0.8</v>
       </c>
       <c r="G168" s="3">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -5293,16 +5290,16 @@
         <v>33</v>
       </c>
       <c r="E169" s="3">
-        <v>0.73</v>
+        <v>0.59889999999999999</v>
       </c>
       <c r="F169" s="3">
-        <v>0.8</v>
+        <v>1.0283</v>
       </c>
       <c r="G169" s="3">
-        <v>1.18</v>
+        <v>1.2429999999999999</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -5319,16 +5316,16 @@
         <v>33</v>
       </c>
       <c r="E170" s="3">
-        <v>0.59889999999999999</v>
+        <v>0.49719999999999998</v>
       </c>
       <c r="F170" s="3">
-        <v>1.0283</v>
+        <v>0.96049999999999991</v>
       </c>
       <c r="G170" s="3">
-        <v>1.2429999999999999</v>
+        <v>1.1752</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -5345,16 +5342,16 @@
         <v>33</v>
       </c>
       <c r="E171" s="3">
-        <v>0.49719999999999998</v>
+        <v>0.59889999999999999</v>
       </c>
       <c r="F171" s="3">
-        <v>0.96049999999999991</v>
+        <v>0.73449999999999993</v>
       </c>
       <c r="G171" s="3">
-        <v>1.1752</v>
+        <v>1.2994999999999999</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -5362,25 +5359,25 @@
         <v>60</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E172" s="3">
-        <v>0.59889999999999999</v>
+        <v>130</v>
       </c>
       <c r="F172" s="3">
-        <v>0.73449999999999993</v>
+        <v>159</v>
       </c>
       <c r="G172" s="3">
-        <v>1.2994999999999999</v>
+        <v>220</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -5397,16 +5394,16 @@
         <v>33</v>
       </c>
       <c r="E173" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F173" s="3">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="G173" s="3">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -5423,16 +5420,16 @@
         <v>33</v>
       </c>
       <c r="E174" s="3">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="F174" s="3">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="G174" s="3">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -5452,13 +5449,13 @@
         <v>0</v>
       </c>
       <c r="F175" s="3">
-        <v>120</v>
+        <v>149.24690000000001</v>
       </c>
       <c r="G175" s="3">
-        <v>200</v>
+        <v>212.65750000000003</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -5478,13 +5475,13 @@
         <v>0</v>
       </c>
       <c r="F176" s="3">
-        <v>149.24690000000001</v>
+        <v>111.74185000000003</v>
       </c>
       <c r="G176" s="3">
         <v>212.65750000000003</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -5504,13 +5501,13 @@
         <v>0</v>
       </c>
       <c r="F177" s="3">
-        <v>111.74185000000003</v>
+        <v>150.79350000000002</v>
       </c>
       <c r="G177" s="3">
-        <v>212.65750000000003</v>
+        <v>193.32500000000005</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -5521,22 +5518,22 @@
         <v>105</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E178" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F178" s="3">
-        <v>150.79350000000002</v>
-      </c>
-      <c r="G178" s="3">
-        <v>193.32500000000005</v>
+        <v>52</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -5553,16 +5550,16 @@
         <v>33</v>
       </c>
       <c r="E179" s="3">
-        <v>40</v>
+        <v>38.665000000000006</v>
       </c>
       <c r="F179" s="3">
-        <v>52</v>
+        <v>40.211600000000011</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -5582,13 +5579,13 @@
         <v>38.665000000000006</v>
       </c>
       <c r="F180" s="3">
-        <v>40.211600000000011</v>
+        <v>40.598250000000007</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -5608,13 +5605,13 @@
         <v>38.665000000000006</v>
       </c>
       <c r="F181" s="3">
-        <v>40.598250000000007</v>
+        <v>50.264500000000012</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -5625,22 +5622,22 @@
         <v>105</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E182" s="3">
-        <v>38.665000000000006</v>
+        <v>0</v>
       </c>
       <c r="F182" s="3">
-        <v>50.264500000000012</v>
-      </c>
-      <c r="G182" s="3" t="s">
-        <v>41</v>
+        <v>59</v>
+      </c>
+      <c r="G182" s="3">
+        <v>130</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -5660,13 +5657,13 @@
         <v>0</v>
       </c>
       <c r="F183" s="3">
-        <v>59</v>
+        <v>98.982400000000013</v>
       </c>
       <c r="G183" s="3">
-        <v>130</v>
+        <v>115.99500000000002</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -5686,13 +5683,13 @@
         <v>0</v>
       </c>
       <c r="F184" s="3">
-        <v>98.982400000000013</v>
+        <v>63.410600000000009</v>
       </c>
       <c r="G184" s="3">
         <v>115.99500000000002</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -5712,13 +5709,13 @@
         <v>0</v>
       </c>
       <c r="F185" s="3">
-        <v>63.410600000000009</v>
+        <v>88.929500000000004</v>
       </c>
       <c r="G185" s="3">
-        <v>115.99500000000002</v>
+        <v>112.12850000000002</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -5729,22 +5726,22 @@
         <v>105</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E186" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F186" s="3">
-        <v>88.929500000000004</v>
+        <v>55</v>
       </c>
       <c r="G186" s="3">
-        <v>112.12850000000002</v>
+        <v>185</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -5761,16 +5758,16 @@
         <v>33</v>
       </c>
       <c r="E187" s="3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F187" s="3">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G187" s="3">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -5790,13 +5787,13 @@
         <v>0</v>
       </c>
       <c r="F188" s="3">
-        <v>47</v>
+        <v>50.444999999999993</v>
       </c>
       <c r="G188" s="3">
-        <v>150</v>
+        <v>150.44999999999999</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -5816,13 +5813,13 @@
         <v>0</v>
       </c>
       <c r="F189" s="3">
-        <v>50.444999999999993</v>
+        <v>38.94</v>
       </c>
       <c r="G189" s="3">
         <v>150.44999999999999</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -5842,13 +5839,13 @@
         <v>0</v>
       </c>
       <c r="F190" s="3">
-        <v>38.94</v>
+        <v>44.25</v>
       </c>
       <c r="G190" s="3">
         <v>150.44999999999999</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -5856,22 +5853,22 @@
         <v>60</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="E191" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F191" s="3">
-        <v>44.25</v>
+        <v>278</v>
       </c>
       <c r="G191" s="3">
-        <v>150.44999999999999</v>
+        <v>285</v>
       </c>
       <c r="H191" s="2" t="s">
         <v>67</v>
@@ -5885,22 +5882,22 @@
         <v>82</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="E192" s="3">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="F192" s="3">
-        <v>278</v>
+        <v>84</v>
       </c>
       <c r="G192" s="3">
-        <v>285</v>
+        <v>105</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -5917,16 +5914,16 @@
         <v>33</v>
       </c>
       <c r="E193" s="3">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F193" s="3">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="G193" s="3">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -5943,16 +5940,16 @@
         <v>33</v>
       </c>
       <c r="E194" s="3">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F194" s="3">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G194" s="3">
         <v>110</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -5969,16 +5966,16 @@
         <v>33</v>
       </c>
       <c r="E195" s="3">
-        <v>60</v>
+        <v>70.262399999999985</v>
       </c>
       <c r="F195" s="3">
-        <v>88</v>
+        <v>88.278400000000005</v>
       </c>
       <c r="G195" s="3">
-        <v>110</v>
+        <v>109.89759999999998</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -5998,13 +5995,13 @@
         <v>70.262399999999985</v>
       </c>
       <c r="F196" s="3">
-        <v>88.278400000000005</v>
+        <v>75.667199999999994</v>
       </c>
       <c r="G196" s="3">
         <v>109.89759999999998</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -6012,25 +6009,25 @@
         <v>60</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E197" s="3">
-        <v>70.262399999999985</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F197" s="3">
-        <v>75.667199999999994</v>
+        <v>9.6</v>
       </c>
       <c r="G197" s="3">
-        <v>109.89759999999998</v>
+        <v>10.6</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -6047,16 +6044,16 @@
         <v>33</v>
       </c>
       <c r="E198" s="3">
-        <v>8.1999999999999993</v>
+        <v>8.4163800000000002</v>
       </c>
       <c r="F198" s="3">
-        <v>9.6</v>
+        <v>9.1377839999999981</v>
       </c>
       <c r="G198" s="3">
-        <v>10.6</v>
+        <v>10.42028</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -6076,13 +6073,13 @@
         <v>8.4163800000000002</v>
       </c>
       <c r="F199" s="3">
-        <v>9.1377839999999981</v>
+        <v>9.899265999999999</v>
       </c>
       <c r="G199" s="3">
-        <v>10.42028</v>
+        <v>10.620669999999999</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -6093,22 +6090,22 @@
         <v>106</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E200" s="3">
-        <v>8.4163800000000002</v>
+        <v>95</v>
       </c>
       <c r="F200" s="3">
-        <v>9.899265999999999</v>
+        <v>97</v>
       </c>
       <c r="G200" s="3">
-        <v>10.620669999999999</v>
+        <v>110</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -6121,20 +6118,20 @@
       <c r="C201" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="D201" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E201" s="3">
         <v>95</v>
       </c>
       <c r="F201" s="3">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G201" s="3">
         <v>110</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -6145,22 +6142,22 @@
         <v>106</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="E202" s="3">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="F202" s="3">
-        <v>96</v>
+        <v>109.7</v>
       </c>
       <c r="G202" s="3">
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -6180,13 +6177,13 @@
         <v>30</v>
       </c>
       <c r="F203" s="3">
-        <v>109.7</v>
+        <v>86.2</v>
       </c>
       <c r="G203" s="3">
         <v>350</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -6203,16 +6200,16 @@
         <v>118</v>
       </c>
       <c r="E204" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F204" s="3">
-        <v>86.2</v>
+        <v>92</v>
       </c>
       <c r="G204" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -6229,16 +6226,16 @@
         <v>118</v>
       </c>
       <c r="E205" s="3">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F205" s="3">
-        <v>92</v>
+        <v>120.6</v>
       </c>
       <c r="G205" s="3">
         <v>300</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -6249,19 +6246,19 @@
         <v>106</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="E206" s="3">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F206" s="3">
-        <v>120.6</v>
+        <v>96</v>
       </c>
       <c r="G206" s="3">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="H206" s="2" t="s">
         <v>5</v>
@@ -6281,16 +6278,16 @@
         <v>51</v>
       </c>
       <c r="E207" s="3">
-        <v>59</v>
+        <v>61.429500000000004</v>
       </c>
       <c r="F207" s="3">
-        <v>96</v>
+        <v>86.001300000000001</v>
       </c>
       <c r="G207" s="3">
-        <v>160</v>
+        <v>156.36600000000001</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -6301,22 +6298,22 @@
         <v>106</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E208" s="3">
-        <v>61.429500000000004</v>
+        <v>0.65</v>
       </c>
       <c r="F208" s="3">
-        <v>86.001300000000001</v>
+        <v>0.84</v>
       </c>
       <c r="G208" s="3">
-        <v>156.36600000000001</v>
+        <v>1.05</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -6329,20 +6326,20 @@
       <c r="C209" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="D209" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E209" s="3">
         <v>0.65</v>
       </c>
       <c r="F209" s="3">
-        <v>0.84</v>
+        <v>0.91</v>
       </c>
       <c r="G209" s="3">
         <v>1.05</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -6355,20 +6352,20 @@
       <c r="C210" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="D210" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E210" s="3">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F210" s="3">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="G210" s="3">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -6379,19 +6376,19 @@
         <v>106</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E211" s="3">
-        <v>0.66</v>
+        <v>2.5</v>
       </c>
       <c r="F211" s="3">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="G211" s="3">
-        <v>1.07</v>
+        <v>5</v>
       </c>
       <c r="H211" s="2" t="s">
         <v>5</v>
@@ -6411,16 +6408,16 @@
         <v>33</v>
       </c>
       <c r="E212" s="3">
-        <v>2.5</v>
+        <v>2.6970000000000001</v>
       </c>
       <c r="F212" s="3">
-        <v>4.5</v>
+        <v>3.7509999999999999</v>
       </c>
       <c r="G212" s="3">
-        <v>5</v>
+        <v>4.4950000000000001</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -6440,13 +6437,13 @@
         <v>2.6970000000000001</v>
       </c>
       <c r="F213" s="3">
-        <v>3.7509999999999999</v>
+        <v>3.6269999999999998</v>
       </c>
       <c r="G213" s="3">
         <v>4.4950000000000001</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -6457,22 +6454,22 @@
         <v>106</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E214" s="3">
-        <v>2.6970000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="F214" s="3">
-        <v>3.6269999999999998</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="G214" s="3">
-        <v>4.4950000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -6492,13 +6489,13 @@
         <v>3.5</v>
       </c>
       <c r="F215" s="3">
-        <v>4.3899999999999997</v>
+        <v>4</v>
       </c>
       <c r="G215" s="3">
-        <v>5.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -6515,16 +6512,16 @@
         <v>35</v>
       </c>
       <c r="E216" s="3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="F216" s="3">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G216" s="3">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -6541,16 +6538,16 @@
         <v>35</v>
       </c>
       <c r="E217" s="3">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="F217" s="3">
-        <v>4.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G217" s="3">
-        <v>4.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -6561,22 +6558,22 @@
         <v>106</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E218" s="3">
-        <v>3.5</v>
+        <v>136</v>
       </c>
       <c r="F218" s="3">
-        <v>4.0999999999999996</v>
+        <v>140.19999999999999</v>
       </c>
       <c r="G218" s="3">
-        <v>5.0999999999999996</v>
+        <v>146</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -6593,16 +6590,16 @@
         <v>35</v>
       </c>
       <c r="E219" s="3">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F219" s="3">
-        <v>140.19999999999999</v>
+        <v>140</v>
       </c>
       <c r="G219" s="3">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -6615,20 +6612,20 @@
       <c r="C220" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="D220" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E220" s="3">
         <v>135</v>
       </c>
       <c r="F220" s="3">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G220" s="3">
         <v>145</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -6641,20 +6638,20 @@
       <c r="C221" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D221" s="2" t="s">
+      <c r="D221" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E221" s="3">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F221" s="3">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G221" s="3">
         <v>145</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -6671,16 +6668,16 @@
         <v>35</v>
       </c>
       <c r="E222" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F222" s="3">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G222" s="3">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -6688,22 +6685,22 @@
         <v>60</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E223" s="3">
-        <v>135</v>
+        <v>0.2</v>
       </c>
       <c r="F223" s="3">
-        <v>139</v>
+        <v>1.2</v>
       </c>
       <c r="G223" s="3">
-        <v>147</v>
+        <v>1.2</v>
       </c>
       <c r="H223" s="2" t="s">
         <v>5</v>
@@ -6723,16 +6720,16 @@
         <v>33</v>
       </c>
       <c r="E224" s="3">
-        <v>0.2</v>
+        <v>0.2923</v>
       </c>
       <c r="F224" s="3">
-        <v>1.2</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="G224" s="3">
-        <v>1.2</v>
+        <v>1.5201</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -6743,22 +6740,22 @@
         <v>127</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E225" s="3">
-        <v>0.2923</v>
+        <v>0</v>
       </c>
       <c r="F225" s="3">
-        <v>0.99980000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G225" s="3">
-        <v>1.5201</v>
+        <v>0.3</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -6769,7 +6766,7 @@
         <v>127</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>33</v>
@@ -6778,10 +6775,10 @@
         <v>0</v>
       </c>
       <c r="F226" s="3">
-        <v>0.33</v>
+        <v>0.53</v>
       </c>
       <c r="G226" s="3">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H226" s="2" t="s">
         <v>85</v>
@@ -6795,7 +6792,7 @@
         <v>127</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>33</v>
@@ -6804,10 +6801,10 @@
         <v>0</v>
       </c>
       <c r="F227" s="3">
-        <v>0.53</v>
+        <v>0.86</v>
       </c>
       <c r="G227" s="3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H227" s="2" t="s">
         <v>85</v>
@@ -6821,19 +6818,19 @@
         <v>127</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E228" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F228" s="3">
-        <v>0.86</v>
+        <v>15.6</v>
       </c>
       <c r="G228" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H228" s="2" t="s">
         <v>85</v>
@@ -6853,16 +6850,16 @@
         <v>35</v>
       </c>
       <c r="E229" s="3">
+        <v>5.46</v>
+      </c>
+      <c r="F229" s="3">
+        <v>10.55</v>
+      </c>
+      <c r="G229" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="H229" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F229" s="3">
-        <v>15.6</v>
-      </c>
-      <c r="G229" s="3">
-        <v>15</v>
-      </c>
-      <c r="H229" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -6873,22 +6870,22 @@
         <v>127</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="D230" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E230" s="3">
         <v>35</v>
       </c>
-      <c r="E230" s="3">
-        <v>5.46</v>
-      </c>
       <c r="F230" s="3">
-        <v>10.55</v>
+        <v>46</v>
       </c>
       <c r="G230" s="3">
-        <v>16.2</v>
+        <v>52</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -6908,13 +6905,13 @@
         <v>35</v>
       </c>
       <c r="F231" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G231" s="3">
         <v>52</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -6925,19 +6922,19 @@
         <v>127</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>70</v>
       </c>
       <c r="E232" s="3">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F232" s="3">
-        <v>47</v>
+        <v>25.3</v>
       </c>
       <c r="G232" s="3">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H232" s="2" t="s">
         <v>67</v>
@@ -6951,22 +6948,22 @@
         <v>127</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>70</v>
       </c>
       <c r="E233" s="3">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F233" s="3">
-        <v>25.3</v>
+        <v>71</v>
       </c>
       <c r="G233" s="3">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -6983,16 +6980,16 @@
         <v>70</v>
       </c>
       <c r="E234" s="3">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F234" s="3">
-        <v>71</v>
+        <v>72.3</v>
       </c>
       <c r="G234" s="3">
         <v>83</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -7000,25 +6997,25 @@
         <v>60</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="E235" s="3">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="F235" s="3">
-        <v>72.3</v>
+        <v>0.43</v>
       </c>
       <c r="G235" s="3">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -7026,22 +7023,22 @@
         <v>60</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E236" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F236" s="3">
-        <v>0.43</v>
+        <v>11.2</v>
       </c>
       <c r="G236" s="3">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H236" s="2" t="s">
         <v>5</v>
@@ -7055,22 +7052,22 @@
         <v>137</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E237" s="3">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F237" s="3">
-        <v>11.2</v>
+        <v>30</v>
       </c>
       <c r="G237" s="3">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -7087,16 +7084,16 @@
         <v>33</v>
       </c>
       <c r="E238" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F238" s="3">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G238" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -7113,16 +7110,16 @@
         <v>33</v>
       </c>
       <c r="E239" s="3">
-        <v>17</v>
+        <v>19.219200000000001</v>
       </c>
       <c r="F239" s="3">
-        <v>24</v>
+        <v>22.822800000000001</v>
       </c>
       <c r="G239" s="3">
-        <v>51</v>
+        <v>43.843800000000002</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -7133,22 +7130,22 @@
         <v>137</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E240" s="3">
-        <v>19.219200000000001</v>
+        <v>2.5</v>
       </c>
       <c r="F240" s="3">
-        <v>22.822800000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G240" s="3">
-        <v>43.843800000000002</v>
+        <v>7.5</v>
       </c>
       <c r="H240" s="2" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -7165,16 +7162,16 @@
         <v>33</v>
       </c>
       <c r="E241" s="3">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F241" s="3">
         <v>4.0999999999999996</v>
       </c>
       <c r="G241" s="3">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -7194,13 +7191,13 @@
         <v>3.5</v>
       </c>
       <c r="F242" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.9055999999999997</v>
       </c>
       <c r="G242" s="3">
-        <v>7.2</v>
+        <v>7.0559999999999992</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -7217,16 +7214,16 @@
         <v>33</v>
       </c>
       <c r="E243" s="3">
-        <v>3.5</v>
+        <v>3.5279999999999996</v>
       </c>
       <c r="F243" s="3">
-        <v>4.9055999999999997</v>
+        <v>4.1495999999999995</v>
       </c>
       <c r="G243" s="3">
         <v>7.0559999999999992</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
@@ -7246,39 +7243,39 @@
         <v>3.5279999999999996</v>
       </c>
       <c r="F244" s="3">
-        <v>4.1495999999999995</v>
+        <v>3.9983999999999997</v>
       </c>
       <c r="G244" s="3">
         <v>7.0559999999999992</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E245" s="3">
-        <v>3.5279999999999996</v>
+        <v>0</v>
       </c>
       <c r="F245" s="3">
-        <v>3.9983999999999997</v>
+        <v>0</v>
       </c>
       <c r="G245" s="3">
-        <v>7.0559999999999992</v>
+        <v>0</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -7304,7 +7301,7 @@
         <v>0</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -7315,7 +7312,7 @@
         <v>54</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>33</v>
@@ -7330,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -7356,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -7367,22 +7364,22 @@
         <v>54</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="E249" s="3">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="F249" s="3">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="G249" s="3">
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -7399,16 +7396,16 @@
         <v>70</v>
       </c>
       <c r="E250" s="3">
-        <v>1010</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="F250" s="3">
-        <v>1020</v>
+        <v>1.024</v>
       </c>
       <c r="G250" s="3">
-        <v>1030</v>
+        <v>1.03</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -7425,16 +7422,16 @@
         <v>70</v>
       </c>
       <c r="E251" s="3">
-        <v>1.0049999999999999</v>
+        <v>1</v>
       </c>
       <c r="F251" s="3">
-        <v>1.024</v>
+        <v>1.02</v>
       </c>
       <c r="G251" s="3">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -7445,22 +7442,22 @@
         <v>54</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>70</v>
+        <v>20</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E252" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252" s="3">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="G252" s="3">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -7486,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
@@ -7512,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -7523,7 +7520,7 @@
         <v>54</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>33</v>
@@ -7538,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
@@ -7564,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -7575,7 +7572,7 @@
         <v>54</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>33</v>
@@ -7590,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
@@ -7616,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
@@ -7627,10 +7624,10 @@
         <v>54</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E259" s="3">
         <v>0</v>
@@ -7642,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
@@ -7668,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
@@ -7694,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
@@ -7705,10 +7702,7 @@
         <v>54</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E262" s="3">
         <v>0</v>
@@ -7720,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
@@ -7743,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -7766,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
@@ -7777,19 +7771,19 @@
         <v>54</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="E265" s="3">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F265" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G265" s="3">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="H265" s="2" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
@@ -7803,16 +7797,16 @@
         <v>83</v>
       </c>
       <c r="E266" s="3">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="F266" s="3">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="G266" s="3">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
@@ -7826,7 +7820,7 @@
         <v>83</v>
       </c>
       <c r="E267" s="3">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="F267" s="3">
         <v>5.5</v>
@@ -7835,7 +7829,7 @@
         <v>7.5</v>
       </c>
       <c r="H267" s="2" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
@@ -7846,19 +7840,22 @@
         <v>54</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>83</v>
+        <v>24</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E268" s="3">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F268" s="3">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="G268" s="3">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
@@ -7869,7 +7866,7 @@
         <v>54</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>33</v>
@@ -7910,7 +7907,7 @@
         <v>0</v>
       </c>
       <c r="H270" s="2" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -7927,42 +7924,42 @@
         <v>33</v>
       </c>
       <c r="E271" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F271" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G271" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="E272" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F272" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G272" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H272" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
@@ -7973,19 +7970,19 @@
         <v>125</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="E273" s="3">
         <v>0</v>
       </c>
       <c r="F273" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G273" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H273" s="2" t="s">
         <v>111</v>
@@ -7999,22 +7996,22 @@
         <v>125</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="E274" s="3">
         <v>0</v>
       </c>
       <c r="F274" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G274" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H274" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
@@ -8040,7 +8037,7 @@
         <v>1</v>
       </c>
       <c r="H275" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
@@ -8051,7 +8048,7 @@
         <v>125</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>119</v>
@@ -8066,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="H276" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
@@ -8092,7 +8089,7 @@
         <v>1</v>
       </c>
       <c r="H277" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
@@ -8100,25 +8097,25 @@
         <v>60</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="E278" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F278" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G278" s="3">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H278" s="2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
@@ -8138,13 +8135,13 @@
         <v>3</v>
       </c>
       <c r="F279" s="3">
-        <v>5</v>
+        <v>9.6</v>
       </c>
       <c r="G279" s="3">
         <v>17</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
@@ -8155,22 +8152,22 @@
         <v>104</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="E280" s="3">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F280" s="3">
-        <v>9.6</v>
+        <v>116</v>
       </c>
       <c r="G280" s="3">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="H280" s="2" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
@@ -8181,22 +8178,22 @@
         <v>104</v>
       </c>
       <c r="C281" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E281" s="3">
+        <v>30</v>
+      </c>
+      <c r="F281" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="G281" s="3">
         <v>96</v>
       </c>
-      <c r="D281" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E281" s="3">
-        <v>35</v>
-      </c>
-      <c r="F281" s="3">
-        <v>116</v>
-      </c>
-      <c r="G281" s="3">
-        <v>158</v>
-      </c>
       <c r="H281" s="2" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
@@ -8213,16 +8210,16 @@
         <v>19</v>
       </c>
       <c r="E282" s="3">
-        <v>30</v>
+        <v>20.03</v>
       </c>
       <c r="F282" s="3">
-        <v>20.5</v>
+        <v>17.2258</v>
       </c>
       <c r="G282" s="3">
-        <v>96</v>
+        <v>60.09</v>
       </c>
       <c r="H282" s="2" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
@@ -8242,13 +8239,13 @@
         <v>20.03</v>
       </c>
       <c r="F283" s="3">
-        <v>17.2258</v>
+        <v>12.8192</v>
       </c>
       <c r="G283" s="3">
         <v>60.09</v>
       </c>
       <c r="H283" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
@@ -8259,22 +8256,22 @@
         <v>104</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E284" s="3">
-        <v>20.03</v>
+        <v>200</v>
       </c>
       <c r="F284" s="3">
-        <v>12.8192</v>
+        <v>419</v>
       </c>
       <c r="G284" s="3">
-        <v>60.09</v>
+        <v>950</v>
       </c>
       <c r="H284" s="2" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
@@ -8291,16 +8288,16 @@
         <v>52</v>
       </c>
       <c r="E285" s="3">
-        <v>200</v>
+        <v>298.18799999999999</v>
       </c>
       <c r="F285" s="3">
-        <v>419</v>
-      </c>
-      <c r="G285" s="3">
-        <v>950</v>
+        <v>451.34819999999996</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H285" s="2" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
@@ -8320,49 +8317,23 @@
         <v>298.18799999999999</v>
       </c>
       <c r="F286" s="3">
-        <v>451.34819999999996</v>
+        <v>356.47019999999998</v>
       </c>
       <c r="G286" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H286" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E287" s="3">
-        <v>298.18799999999999</v>
-      </c>
-      <c r="F287" s="3">
-        <v>356.47019999999998</v>
-      </c>
-      <c r="G287" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H287" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="H287" s="3"/>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H288" s="3"/>
     </row>
     <row r="289" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H289" s="3"/>
-    </row>
-    <row r="290" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H290" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{A46A3802-283E-4E98-BCAF-1BECEA2B901B}">
@@ -8371,16 +8342,16 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F153:F169 F171:F273 F280:F1048576 F1:F151">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="notBetween">
+  <conditionalFormatting sqref="E44:E46 F1:F150 F279:F1048576">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="notBetween">
       <formula>$E1</formula>
       <formula>$G1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44:E46">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="notBetween">
-      <formula>$E44</formula>
-      <formula>$G44</formula>
+  <conditionalFormatting sqref="F152:F168 F170:F272">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="notBetween">
+      <formula>$E152</formula>
+      <formula>$G152</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F109:F111">
@@ -8389,28 +8360,28 @@
       <formula>$G109</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F137:F139 F130 F143">
+  <conditionalFormatting sqref="F129 F136:F138 F142">
     <cfRule type="cellIs" dxfId="3" priority="25" operator="notBetween">
-      <formula>$G130</formula>
+      <formula>$G129</formula>
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F165 F152">
+  <conditionalFormatting sqref="F151 F164">
     <cfRule type="cellIs" dxfId="2" priority="33" operator="notBetween">
-      <formula>$G152</formula>
+      <formula>$G151</formula>
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H288:H290">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="notBetween">
-      <formula>$E288</formula>
-      <formula>$G288</formula>
+  <conditionalFormatting sqref="F169">
+    <cfRule type="cellIs" dxfId="1" priority="36" operator="notBetween">
+      <formula>$E169</formula>
+      <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F170">
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="notBetween">
-      <formula>$E170</formula>
-      <formula>#REF!</formula>
+  <conditionalFormatting sqref="H287:H289">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
+      <formula>$E287</formula>
+      <formula>$G287</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/summary.xlsx
+++ b/data/summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Git\VitaTracer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663FBD53-61BE-4C7F-86EA-5ABF0F2FE624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BE9BAD-61F4-4615-94F1-180018A59167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5FE37573-B430-462E-8B71-BEB2CD0D5C54}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="182">
   <si>
     <t>03.06.2022</t>
   </si>
@@ -1004,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46A3802-283E-4E98-BCAF-1BECEA2B901B}">
-  <dimension ref="A1:L467"/>
+  <dimension ref="A1:L468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C153" sqref="C153"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H219" sqref="H219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6699,25 +6699,25 @@
         <v>82</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="E219" s="4">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="F219" s="4">
-        <v>2.04</v>
+        <v>10.1</v>
       </c>
       <c r="G219" s="4">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -6734,16 +6734,16 @@
         <v>92</v>
       </c>
       <c r="E220" s="4">
-        <v>0.82</v>
+        <v>0.7</v>
       </c>
       <c r="F220" s="4">
-        <v>2.33</v>
+        <v>2.04</v>
       </c>
       <c r="G220" s="4">
-        <v>4.53</v>
+        <v>4</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -6751,25 +6751,25 @@
         <v>82</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="E221" s="4">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="F221" s="4">
-        <v>1.1000000000000001</v>
+        <v>2.33</v>
       </c>
       <c r="G221" s="4">
-        <v>1.2</v>
+        <v>4.53</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -6777,25 +6777,25 @@
         <v>82</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="E222" s="4">
-        <v>61.429500000000004</v>
+        <v>0.8</v>
       </c>
       <c r="F222" s="4">
-        <v>86.001300000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G222" s="4">
-        <v>156.36600000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -6812,42 +6812,42 @@
         <v>74</v>
       </c>
       <c r="E223" s="4">
-        <v>59</v>
+        <v>61.429500000000004</v>
       </c>
       <c r="F223" s="4">
-        <v>96</v>
+        <v>86.001300000000001</v>
       </c>
       <c r="G223" s="4">
-        <v>160</v>
+        <v>156.36600000000001</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E224" s="4">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F224" s="4">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="G224" s="4">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -6925,33 +6925,33 @@
         <v>0</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E228" s="4">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="F228" s="4">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="G228" s="4">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -6968,16 +6968,16 @@
         <v>57</v>
       </c>
       <c r="E229" s="4">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="F229" s="4">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="G229" s="4">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -6985,25 +6985,25 @@
         <v>82</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E230" s="4">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="F230" s="4">
-        <v>98.982400000000013</v>
+        <v>163</v>
       </c>
       <c r="G230" s="4">
-        <v>115.99500000000002</v>
+        <v>225</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -7023,13 +7023,13 @@
         <v>0</v>
       </c>
       <c r="F231" s="4">
-        <v>63.410600000000009</v>
+        <v>98.982400000000013</v>
       </c>
       <c r="G231" s="4">
         <v>115.99500000000002</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -7049,13 +7049,13 @@
         <v>0</v>
       </c>
       <c r="F232" s="4">
-        <v>88.929500000000004</v>
+        <v>63.410600000000009</v>
       </c>
       <c r="G232" s="4">
-        <v>112.12850000000002</v>
+        <v>115.99500000000002</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -7075,13 +7075,13 @@
         <v>0</v>
       </c>
       <c r="F233" s="4">
-        <v>59</v>
+        <v>88.929500000000004</v>
       </c>
       <c r="G233" s="4">
-        <v>130</v>
+        <v>112.12850000000002</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -7101,13 +7101,13 @@
         <v>0</v>
       </c>
       <c r="F234" s="4">
-        <v>54.91</v>
+        <v>59</v>
       </c>
       <c r="G234" s="4">
         <v>130</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -7115,25 +7115,25 @@
         <v>82</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E235" s="4">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="F235" s="4">
-        <v>4.5</v>
+        <v>54.91</v>
       </c>
       <c r="G235" s="4">
-        <v>11.5</v>
+        <v>130</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -7153,13 +7153,13 @@
         <v>4.2</v>
       </c>
       <c r="F236" s="4">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="G236" s="4">
         <v>11.5</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -7176,16 +7176,16 @@
         <v>72</v>
       </c>
       <c r="E237" s="4">
-        <v>3.91</v>
+        <v>4.2</v>
       </c>
       <c r="F237" s="4">
-        <v>4.9000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="G237" s="4">
-        <v>10.9</v>
+        <v>11.5</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -7202,16 +7202,16 @@
         <v>72</v>
       </c>
       <c r="E238" s="4">
-        <v>4</v>
+        <v>3.91</v>
       </c>
       <c r="F238" s="4">
-        <v>3.81</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G238" s="4">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="H238" s="3" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -7228,16 +7228,16 @@
         <v>72</v>
       </c>
       <c r="E239" s="4">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="F239" s="4">
-        <v>5.64</v>
+        <v>3.81</v>
       </c>
       <c r="G239" s="4">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -7254,16 +7254,16 @@
         <v>72</v>
       </c>
       <c r="E240" s="4">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="F240" s="4">
-        <v>3.7</v>
+        <v>5.64</v>
       </c>
       <c r="G240" s="4">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="H240" s="3" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -7283,13 +7283,13 @@
         <v>3.2</v>
       </c>
       <c r="F241" s="4">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="G241" s="4">
         <v>10.5</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -7306,16 +7306,16 @@
         <v>72</v>
       </c>
       <c r="E242" s="4">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="F242" s="4">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="G242" s="4">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -7335,13 +7335,13 @@
         <v>4</v>
       </c>
       <c r="F243" s="4">
-        <v>3.76</v>
+        <v>3.3</v>
       </c>
       <c r="G243" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H243" s="3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
@@ -7358,16 +7358,16 @@
         <v>72</v>
       </c>
       <c r="E244" s="4">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="F244" s="4">
-        <v>3</v>
+        <v>3.76</v>
       </c>
       <c r="G244" s="4">
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -7384,42 +7384,42 @@
         <v>72</v>
       </c>
       <c r="E245" s="4">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="F245" s="4">
-        <v>5.61</v>
+        <v>3</v>
       </c>
       <c r="G245" s="4">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E246" s="4">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="F246" s="4">
-        <v>0</v>
+        <v>5.61</v>
       </c>
       <c r="G246" s="4">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -7445,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -7497,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -7523,33 +7523,33 @@
         <v>0</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E251" s="4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F251" s="4">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G251" s="4">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -7557,22 +7557,22 @@
         <v>82</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>38</v>
+        <v>177</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E252" s="4">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F252" s="4">
-        <v>38.799999999999997</v>
+        <v>19</v>
       </c>
       <c r="G252" s="4">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H252" s="3" t="s">
         <v>180</v>
@@ -7589,16 +7589,16 @@
         <v>38</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E253" s="4">
-        <v>0.84</v>
+        <v>20</v>
       </c>
       <c r="F253" s="4">
-        <v>1.746</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="G253" s="4">
-        <v>5.1749999999999998</v>
+        <v>45</v>
       </c>
       <c r="H253" s="3" t="s">
         <v>180</v>
@@ -7615,19 +7615,19 @@
         <v>38</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E254" s="4">
-        <v>20</v>
+        <v>0.84</v>
       </c>
       <c r="F254" s="4">
-        <v>32.200000000000003</v>
+        <v>1.746</v>
       </c>
       <c r="G254" s="4">
-        <v>45</v>
+        <v>5.1749999999999998</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -7641,16 +7641,16 @@
         <v>38</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E255" s="4">
-        <v>0.84</v>
+        <v>20</v>
       </c>
       <c r="F255" s="4">
-        <v>1.3846000000000001</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="G255" s="4">
-        <v>5.1749999999999998</v>
+        <v>45</v>
       </c>
       <c r="H255" s="3" t="s">
         <v>149</v>
@@ -7667,19 +7667,19 @@
         <v>38</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E256" s="4">
-        <v>19.100000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="F256" s="4">
-        <v>31</v>
+        <v>1.3846000000000001</v>
       </c>
       <c r="G256" s="4">
-        <v>47.9</v>
+        <v>5.1749999999999998</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -7693,16 +7693,16 @@
         <v>38</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E257" s="4">
-        <v>1.26</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="F257" s="4">
-        <v>1.52</v>
+        <v>31</v>
       </c>
       <c r="G257" s="4">
-        <v>3.35</v>
+        <v>47.9</v>
       </c>
       <c r="H257" s="3" t="s">
         <v>173</v>
@@ -7719,19 +7719,19 @@
         <v>38</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E258" s="4">
-        <v>20</v>
+        <v>1.26</v>
       </c>
       <c r="F258" s="4">
-        <v>34.4</v>
+        <v>1.52</v>
       </c>
       <c r="G258" s="4">
-        <v>50</v>
+        <v>3.35</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
@@ -7745,16 +7745,16 @@
         <v>38</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E259" s="4">
-        <v>1.2</v>
+        <v>20</v>
       </c>
       <c r="F259" s="4">
-        <v>1.3</v>
+        <v>34.4</v>
       </c>
       <c r="G259" s="4">
-        <v>3.5</v>
+        <v>50</v>
       </c>
       <c r="H259" s="3" t="s">
         <v>145</v>
@@ -7777,13 +7777,13 @@
         <v>1.2</v>
       </c>
       <c r="F260" s="4">
-        <v>2.2999999999999998</v>
+        <v>1.3</v>
       </c>
       <c r="G260" s="4">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="H260" s="3" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
@@ -7797,16 +7797,16 @@
         <v>38</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E261" s="4">
-        <v>20</v>
+        <v>1.2</v>
       </c>
       <c r="F261" s="4">
-        <v>40.799999999999997</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G261" s="4">
-        <v>44</v>
+        <v>4.8</v>
       </c>
       <c r="H261" s="3" t="s">
         <v>174</v>
@@ -7826,16 +7826,16 @@
         <v>32</v>
       </c>
       <c r="E262" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F262" s="4">
-        <v>36.4</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="G262" s="4">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H262" s="3" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
@@ -7849,16 +7849,16 @@
         <v>38</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E263" s="4">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="F263" s="4">
-        <v>1.45</v>
+        <v>36.4</v>
       </c>
       <c r="G263" s="4">
-        <v>4.8</v>
+        <v>50</v>
       </c>
       <c r="H263" s="3" t="s">
         <v>134</v>
@@ -7874,20 +7874,20 @@
       <c r="C264" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D264" s="3" t="s">
-        <v>32</v>
+      <c r="D264" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="E264" s="4">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="F264" s="4">
-        <v>34.1</v>
+        <v>1.45</v>
       </c>
       <c r="G264" s="4">
-        <v>50</v>
+        <v>4.8</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
@@ -7900,17 +7900,17 @@
       <c r="C265" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D265" s="2" t="s">
-        <v>72</v>
+      <c r="D265" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E265" s="4">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="F265" s="4">
-        <v>1.5</v>
+        <v>34.1</v>
       </c>
       <c r="G265" s="4">
-        <v>4.8</v>
+        <v>50</v>
       </c>
       <c r="H265" s="3" t="s">
         <v>114</v>
@@ -7927,19 +7927,19 @@
         <v>38</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E266" s="4">
-        <v>25</v>
+        <v>1.5</v>
       </c>
       <c r="F266" s="4">
-        <v>33.4</v>
+        <v>1.5</v>
       </c>
       <c r="G266" s="4">
-        <v>40</v>
+        <v>4.8</v>
       </c>
       <c r="H266" s="3" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
@@ -7953,16 +7953,16 @@
         <v>38</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E267" s="4">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F267" s="4">
-        <v>1.1000000000000001</v>
+        <v>33.4</v>
       </c>
       <c r="G267" s="4">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="H267" s="3" t="s">
         <v>89</v>
@@ -7979,19 +7979,19 @@
         <v>38</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E268" s="4">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F268" s="4">
-        <v>40.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G268" s="4">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="H268" s="3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
@@ -8005,16 +8005,16 @@
         <v>38</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E269" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F269" s="4">
-        <v>1.5189999999999999</v>
+        <v>40.4</v>
       </c>
       <c r="G269" s="4">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="H269" s="3" t="s">
         <v>30</v>
@@ -8031,19 +8031,19 @@
         <v>38</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E270" s="4">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F270" s="4">
-        <v>34.200000000000003</v>
+        <v>1.5189999999999999</v>
       </c>
       <c r="G270" s="4">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="H270" s="3" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -8057,16 +8057,16 @@
         <v>38</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E271" s="4">
-        <v>1.2</v>
+        <v>17</v>
       </c>
       <c r="F271" s="4">
-        <v>1</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="G271" s="4">
-        <v>3.2</v>
+        <v>48</v>
       </c>
       <c r="H271" s="3" t="s">
         <v>166</v>
@@ -8083,19 +8083,19 @@
         <v>38</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E272" s="4">
-        <v>20</v>
+        <v>1.2</v>
       </c>
       <c r="F272" s="4">
-        <v>31.1</v>
+        <v>1</v>
       </c>
       <c r="G272" s="4">
-        <v>44</v>
+        <v>3.2</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
@@ -8109,16 +8109,16 @@
         <v>38</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E273" s="4">
-        <v>1.2</v>
+        <v>20</v>
       </c>
       <c r="F273" s="4">
-        <v>1.74</v>
+        <v>31.1</v>
       </c>
       <c r="G273" s="4">
-        <v>4.8</v>
+        <v>44</v>
       </c>
       <c r="H273" s="3" t="s">
         <v>181</v>
@@ -8129,25 +8129,25 @@
         <v>82</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E274" s="4">
-        <v>0.65</v>
+        <v>1.2</v>
       </c>
       <c r="F274" s="4">
-        <v>0.84</v>
+        <v>1.74</v>
       </c>
       <c r="G274" s="4">
-        <v>1.05</v>
+        <v>4.8</v>
       </c>
       <c r="H274" s="3" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
@@ -8160,20 +8160,20 @@
       <c r="C275" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D275" s="3" t="s">
+      <c r="D275" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E275" s="4">
         <v>0.65</v>
       </c>
       <c r="F275" s="4">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="G275" s="4">
         <v>1.05</v>
       </c>
       <c r="H275" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
@@ -8186,20 +8186,20 @@
       <c r="C276" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D276" s="2" t="s">
+      <c r="D276" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E276" s="4">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F276" s="4">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="G276" s="4">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="H276" s="3" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
@@ -8207,25 +8207,25 @@
         <v>82</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D277" s="4" t="s">
-        <v>94</v>
+        <v>55</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="E277" s="4">
-        <v>80</v>
+        <v>0.66</v>
       </c>
       <c r="F277" s="4">
-        <v>91.11</v>
+        <v>0.9</v>
       </c>
       <c r="G277" s="4">
-        <v>101</v>
+        <v>1.07</v>
       </c>
       <c r="H277" s="3" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
@@ -8245,13 +8245,13 @@
         <v>80</v>
       </c>
       <c r="F278" s="4">
-        <v>90.38</v>
+        <v>91.11</v>
       </c>
       <c r="G278" s="4">
         <v>101</v>
       </c>
       <c r="H278" s="3" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
@@ -8268,16 +8268,16 @@
         <v>94</v>
       </c>
       <c r="E279" s="4">
-        <v>81.8</v>
+        <v>80</v>
       </c>
       <c r="F279" s="4">
-        <v>88.1</v>
+        <v>90.38</v>
       </c>
       <c r="G279" s="4">
-        <v>95.5</v>
+        <v>101</v>
       </c>
       <c r="H279" s="3" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
@@ -8294,16 +8294,16 @@
         <v>94</v>
       </c>
       <c r="E280" s="4">
-        <v>80</v>
+        <v>81.8</v>
       </c>
       <c r="F280" s="4">
-        <v>86.2</v>
+        <v>88.1</v>
       </c>
       <c r="G280" s="4">
-        <v>98</v>
+        <v>95.5</v>
       </c>
       <c r="H280" s="3" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
@@ -8323,13 +8323,13 @@
         <v>80</v>
       </c>
       <c r="F281" s="4">
-        <v>86.1</v>
+        <v>86.2</v>
       </c>
       <c r="G281" s="4">
         <v>98</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
@@ -8346,16 +8346,16 @@
         <v>94</v>
       </c>
       <c r="E282" s="4">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F282" s="4">
-        <v>89.9</v>
+        <v>86.1</v>
       </c>
       <c r="G282" s="4">
         <v>98</v>
       </c>
       <c r="H282" s="3" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
@@ -8375,13 +8375,13 @@
         <v>85</v>
       </c>
       <c r="F283" s="4">
-        <v>88.3</v>
+        <v>89.9</v>
       </c>
       <c r="G283" s="4">
         <v>98</v>
       </c>
       <c r="H283" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
@@ -8394,20 +8394,20 @@
       <c r="C284" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D284" s="2" t="s">
+      <c r="D284" s="4" t="s">
         <v>94</v>
       </c>
       <c r="E284" s="4">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F284" s="4">
-        <v>90.1</v>
+        <v>88.3</v>
       </c>
       <c r="G284" s="4">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H284" s="3" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
@@ -8420,20 +8420,20 @@
       <c r="C285" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D285" s="4" t="s">
+      <c r="D285" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E285" s="4">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F285" s="4">
-        <v>92.8</v>
+        <v>90.1</v>
       </c>
       <c r="G285" s="4">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H285" s="3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
@@ -8450,16 +8450,16 @@
         <v>94</v>
       </c>
       <c r="E286" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F286" s="4">
-        <v>91.4</v>
+        <v>92.8</v>
       </c>
       <c r="G286" s="4">
         <v>96</v>
       </c>
       <c r="H286" s="3" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
@@ -8476,16 +8476,16 @@
         <v>94</v>
       </c>
       <c r="E287" s="4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F287" s="4">
-        <v>86.6</v>
+        <v>91.4</v>
       </c>
       <c r="G287" s="4">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H287" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
@@ -8493,25 +8493,25 @@
         <v>82</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="D288" s="4" t="s">
         <v>94</v>
       </c>
       <c r="E288" s="4">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="F288" s="4">
-        <v>8.6</v>
+        <v>86.6</v>
       </c>
       <c r="G288" s="4">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="H288" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
@@ -8528,16 +8528,16 @@
         <v>94</v>
       </c>
       <c r="E289" s="4">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="F289" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="G289" s="4">
         <v>11</v>
       </c>
-      <c r="G289" s="4">
-        <v>12</v>
-      </c>
       <c r="H289" s="3" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
@@ -8554,16 +8554,16 @@
         <v>94</v>
       </c>
       <c r="E290" s="4">
-        <v>9.3000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="F290" s="4">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="G290" s="4">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="H290" s="3" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
@@ -8580,16 +8580,16 @@
         <v>94</v>
       </c>
       <c r="E291" s="4">
-        <v>9.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F291" s="4">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="G291" s="4">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="H291" s="3" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
@@ -8606,16 +8606,16 @@
         <v>94</v>
       </c>
       <c r="E292" s="4">
-        <v>7.2</v>
+        <v>9.5</v>
       </c>
       <c r="F292" s="4">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="G292" s="4">
-        <v>11.1</v>
+        <v>12</v>
       </c>
       <c r="H292" s="3" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
@@ -8632,16 +8632,16 @@
         <v>94</v>
       </c>
       <c r="E293" s="4">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="F293" s="4">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="G293" s="4">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="H293" s="3" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
@@ -8661,13 +8661,13 @@
         <v>6.5</v>
       </c>
       <c r="F294" s="4">
-        <v>8.1999999999999993</v>
+        <v>7.9</v>
       </c>
       <c r="G294" s="4">
         <v>11</v>
       </c>
       <c r="H294" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
@@ -8684,16 +8684,16 @@
         <v>94</v>
       </c>
       <c r="E295" s="4">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F295" s="4">
-        <v>11.8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G295" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H295" s="3" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
@@ -8710,16 +8710,16 @@
         <v>94</v>
       </c>
       <c r="E296" s="4">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F296" s="4">
-        <v>8.6</v>
+        <v>11.8</v>
       </c>
       <c r="G296" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H296" s="3" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
@@ -8736,16 +8736,16 @@
         <v>94</v>
       </c>
       <c r="E297" s="4">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="F297" s="4">
-        <v>7.9</v>
+        <v>8.6</v>
       </c>
       <c r="G297" s="4">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
@@ -8753,25 +8753,25 @@
         <v>82</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E298" s="3" t="s">
-        <v>175</v>
+        <v>94</v>
+      </c>
+      <c r="E298" s="4">
+        <v>7.2</v>
       </c>
       <c r="F298" s="4">
-        <v>32.729999999999997</v>
+        <v>7.9</v>
       </c>
       <c r="G298" s="4">
-        <v>37</v>
+        <v>11.1</v>
       </c>
       <c r="H298" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
@@ -8785,16 +8785,16 @@
         <v>93</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E299" s="4">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="F299" s="4">
-        <v>29.82</v>
+        <v>32.729999999999997</v>
       </c>
       <c r="G299" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H299" s="3" t="s">
         <v>180</v>
@@ -8811,19 +8811,19 @@
         <v>93</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E300" s="4">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F300" s="4">
-        <v>33.57</v>
+        <v>29.82</v>
       </c>
       <c r="G300" s="4">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H300" s="3" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
@@ -8837,16 +8837,16 @@
         <v>93</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E301" s="4">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F301" s="4">
-        <v>30.34</v>
+        <v>33.57</v>
       </c>
       <c r="G301" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H301" s="3" t="s">
         <v>149</v>
@@ -8862,20 +8862,20 @@
       <c r="C302" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D302" s="2" t="s">
-        <v>34</v>
+      <c r="D302" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="E302" s="4">
-        <v>32.4</v>
+        <v>25</v>
       </c>
       <c r="F302" s="4">
-        <v>32.799999999999997</v>
+        <v>30.34</v>
       </c>
       <c r="G302" s="4">
         <v>35</v>
       </c>
       <c r="H302" s="3" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
@@ -8889,16 +8889,16 @@
         <v>93</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E303" s="4">
-        <v>27</v>
+        <v>32.4</v>
       </c>
       <c r="F303" s="4">
-        <v>28.9</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="G303" s="4">
-        <v>32.299999999999997</v>
+        <v>35</v>
       </c>
       <c r="H303" s="3" t="s">
         <v>173</v>
@@ -8914,20 +8914,20 @@
       <c r="C304" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D304" s="4" t="s">
-        <v>34</v>
+      <c r="D304" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E304" s="4">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F304" s="4">
-        <v>33.6</v>
+        <v>28.9</v>
       </c>
       <c r="G304" s="4">
-        <v>36</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="H304" s="3" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
@@ -8941,16 +8941,16 @@
         <v>93</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E305" s="4">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F305" s="4">
-        <v>28.9</v>
+        <v>33.6</v>
       </c>
       <c r="G305" s="4">
-        <v>33.5</v>
+        <v>36</v>
       </c>
       <c r="H305" s="3" t="s">
         <v>145</v>
@@ -8966,20 +8966,20 @@
       <c r="C306" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D306" s="2" t="s">
-        <v>34</v>
+      <c r="D306" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="E306" s="4">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F306" s="4">
-        <v>33.9</v>
+        <v>28.9</v>
       </c>
       <c r="G306" s="4">
-        <v>36</v>
+        <v>33.5</v>
       </c>
       <c r="H306" s="3" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
@@ -8993,16 +8993,16 @@
         <v>93</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E307" s="4">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F307" s="4">
-        <v>29.2</v>
+        <v>33.9</v>
       </c>
       <c r="G307" s="4">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H307" s="3" t="s">
         <v>174</v>
@@ -9018,20 +9018,20 @@
       <c r="C308" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D308" s="4" t="s">
-        <v>34</v>
+      <c r="D308" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E308" s="4">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F308" s="4">
-        <v>34.1</v>
+        <v>29.2</v>
       </c>
       <c r="G308" s="4">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H308" s="3" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
@@ -9045,16 +9045,16 @@
         <v>93</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E309" s="4">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F309" s="4">
-        <v>30.7</v>
+        <v>34.1</v>
       </c>
       <c r="G309" s="4">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H309" s="3" t="s">
         <v>134</v>
@@ -9071,19 +9071,19 @@
         <v>93</v>
       </c>
       <c r="D310" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E310" s="4">
+        <v>28</v>
+      </c>
+      <c r="F310" s="4">
+        <v>30.7</v>
+      </c>
+      <c r="G310" s="4">
         <v>34</v>
       </c>
-      <c r="E310" s="4">
-        <v>21</v>
-      </c>
-      <c r="F310" s="4">
-        <v>35.1</v>
-      </c>
-      <c r="G310" s="4">
-        <v>37</v>
-      </c>
       <c r="H310" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
@@ -9097,16 +9097,16 @@
         <v>93</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E311" s="4">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F311" s="4">
-        <v>31</v>
+        <v>35.1</v>
       </c>
       <c r="G311" s="4">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H311" s="3" t="s">
         <v>114</v>
@@ -9123,19 +9123,19 @@
         <v>93</v>
       </c>
       <c r="D312" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E312" s="4">
+        <v>28</v>
+      </c>
+      <c r="F312" s="4">
+        <v>31</v>
+      </c>
+      <c r="G312" s="4">
         <v>34</v>
       </c>
-      <c r="E312" s="4">
-        <v>32</v>
-      </c>
-      <c r="F312" s="4">
-        <v>34</v>
-      </c>
-      <c r="G312" s="4">
-        <v>36</v>
-      </c>
       <c r="H312" s="3" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
@@ -9148,17 +9148,17 @@
       <c r="C313" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D313" s="2" t="s">
-        <v>33</v>
+      <c r="D313" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="E313" s="4">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F313" s="4">
-        <v>30.6</v>
+        <v>34</v>
       </c>
       <c r="G313" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H313" s="3" t="s">
         <v>89</v>
@@ -9175,19 +9175,19 @@
         <v>93</v>
       </c>
       <c r="D314" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E314" s="4">
+        <v>28</v>
+      </c>
+      <c r="F314" s="4">
+        <v>30.6</v>
+      </c>
+      <c r="G314" s="4">
         <v>34</v>
       </c>
-      <c r="E314" s="4">
-        <v>33</v>
-      </c>
-      <c r="F314" s="4">
-        <v>33</v>
-      </c>
-      <c r="G314" s="4">
-        <v>37</v>
-      </c>
       <c r="H314" s="3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
@@ -9201,16 +9201,16 @@
         <v>93</v>
       </c>
       <c r="D315" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E315" s="4">
         <v>33</v>
       </c>
-      <c r="E315" s="4">
-        <v>27</v>
-      </c>
       <c r="F315" s="4">
-        <v>30.6</v>
+        <v>33</v>
       </c>
       <c r="G315" s="4">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H315" s="3" t="s">
         <v>30</v>
@@ -9227,19 +9227,19 @@
         <v>93</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E316" s="4">
+        <v>27</v>
+      </c>
+      <c r="F316" s="4">
+        <v>30.6</v>
+      </c>
+      <c r="G316" s="4">
         <v>33</v>
       </c>
-      <c r="F316" s="4">
-        <v>34.4</v>
-      </c>
-      <c r="G316" s="4">
-        <v>36</v>
-      </c>
       <c r="H316" s="3" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
@@ -9253,16 +9253,16 @@
         <v>93</v>
       </c>
       <c r="D317" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E317" s="4">
         <v>33</v>
       </c>
-      <c r="E317" s="4">
-        <v>28</v>
-      </c>
       <c r="F317" s="4">
-        <v>31.4</v>
+        <v>34.4</v>
       </c>
       <c r="G317" s="4">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H317" s="3" t="s">
         <v>166</v>
@@ -9278,20 +9278,20 @@
       <c r="C318" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D318" s="4" t="s">
-        <v>34</v>
+      <c r="D318" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E318" s="4">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F318" s="4">
-        <v>34</v>
+        <v>31.4</v>
       </c>
       <c r="G318" s="4">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H318" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
@@ -9305,16 +9305,16 @@
         <v>93</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E319" s="4">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F319" s="4">
-        <v>29.5</v>
+        <v>34</v>
       </c>
       <c r="G319" s="4">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H319" s="3" t="s">
         <v>181</v>
@@ -9325,25 +9325,25 @@
         <v>82</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D320" s="2" t="s">
-        <v>32</v>
+        <v>93</v>
+      </c>
+      <c r="D320" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="E320" s="4">
-        <v>0.2</v>
+        <v>27</v>
       </c>
       <c r="F320" s="4">
-        <v>7.4</v>
+        <v>29.5</v>
       </c>
       <c r="G320" s="4">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="H320" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
@@ -9357,16 +9357,16 @@
         <v>37</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E321" s="4">
-        <v>4.2000000000000003E-2</v>
+        <v>0.2</v>
       </c>
       <c r="F321" s="4">
-        <v>0.33300000000000002</v>
+        <v>7.4</v>
       </c>
       <c r="G321" s="4">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="H321" s="3" t="s">
         <v>180</v>
@@ -9383,19 +9383,19 @@
         <v>37</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E322" s="4">
-        <v>0.2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F322" s="4">
-        <v>6.7</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="G322" s="4">
-        <v>10</v>
+        <v>0.95</v>
       </c>
       <c r="H322" s="3" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
@@ -9409,16 +9409,16 @@
         <v>37</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E323" s="4">
-        <v>4.2000000000000003E-2</v>
+        <v>0.2</v>
       </c>
       <c r="F323" s="4">
-        <v>0.2281</v>
+        <v>6.7</v>
       </c>
       <c r="G323" s="4">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="H323" s="3" t="s">
         <v>149</v>
@@ -9435,19 +9435,19 @@
         <v>37</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E324" s="4">
-        <v>5.2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F324" s="4">
-        <v>9</v>
+        <v>0.2281</v>
       </c>
       <c r="G324" s="4">
-        <v>15.2</v>
+        <v>0.95</v>
       </c>
       <c r="H324" s="3" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
@@ -9461,16 +9461,16 @@
         <v>37</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E325" s="4">
-        <v>0.28999999999999998</v>
+        <v>5.2</v>
       </c>
       <c r="F325" s="4">
-        <v>0.44</v>
+        <v>9</v>
       </c>
       <c r="G325" s="4">
-        <v>0.95</v>
+        <v>15.2</v>
       </c>
       <c r="H325" s="3" t="s">
         <v>173</v>
@@ -9487,19 +9487,19 @@
         <v>37</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E326" s="4">
-        <v>2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F326" s="4">
-        <v>7.9</v>
+        <v>0.44</v>
       </c>
       <c r="G326" s="4">
-        <v>11</v>
+        <v>0.95</v>
       </c>
       <c r="H326" s="3" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
@@ -9513,16 +9513,16 @@
         <v>37</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E327" s="4">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="F327" s="4">
-        <v>0.3</v>
+        <v>7.9</v>
       </c>
       <c r="G327" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H327" s="3" t="s">
         <v>145</v>
@@ -9542,16 +9542,16 @@
         <v>72</v>
       </c>
       <c r="E328" s="4">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F328" s="4">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="G328" s="4">
         <v>1</v>
       </c>
       <c r="H328" s="3" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
@@ -9565,16 +9565,16 @@
         <v>37</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E329" s="4">
-        <v>3.4</v>
+        <v>0.2</v>
       </c>
       <c r="F329" s="4">
-        <v>6.6</v>
+        <v>0.37</v>
       </c>
       <c r="G329" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H329" s="3" t="s">
         <v>174</v>
@@ -9594,16 +9594,16 @@
         <v>32</v>
       </c>
       <c r="E330" s="4">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="F330" s="4">
-        <v>5.0999999999999996</v>
+        <v>6.6</v>
       </c>
       <c r="G330" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H330" s="3" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
@@ -9617,16 +9617,16 @@
         <v>37</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E331" s="4">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="F331" s="4">
-        <v>0.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G331" s="4">
-        <v>0.92</v>
+        <v>10</v>
       </c>
       <c r="H331" s="3" t="s">
         <v>134</v>
@@ -9642,20 +9642,20 @@
       <c r="C332" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D332" s="3" t="s">
-        <v>32</v>
+      <c r="D332" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="E332" s="4">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="F332" s="4">
-        <v>4.9000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G332" s="4">
-        <v>10</v>
+        <v>0.92</v>
       </c>
       <c r="H332" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
@@ -9668,17 +9668,17 @@
       <c r="C333" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D333" s="2" t="s">
-        <v>72</v>
+      <c r="D333" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E333" s="4">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="F333" s="4">
-        <v>0.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G333" s="4">
-        <v>0.92</v>
+        <v>10</v>
       </c>
       <c r="H333" s="3" t="s">
         <v>114</v>
@@ -9695,19 +9695,19 @@
         <v>37</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E334" s="4">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F334" s="4">
-        <v>9</v>
+        <v>0.2</v>
       </c>
       <c r="G334" s="4">
-        <v>12</v>
+        <v>0.92</v>
       </c>
       <c r="H334" s="3" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
@@ -9721,16 +9721,16 @@
         <v>37</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E335" s="4">
         <v>0</v>
       </c>
       <c r="F335" s="4">
-        <v>0.3</v>
+        <v>9</v>
       </c>
       <c r="G335" s="4">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="H335" s="3" t="s">
         <v>89</v>
@@ -9747,19 +9747,19 @@
         <v>37</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E336" s="4">
         <v>0</v>
       </c>
       <c r="F336" s="4">
-        <v>9</v>
+        <v>0.3</v>
       </c>
       <c r="G336" s="4">
-        <v>12</v>
+        <v>1.2</v>
       </c>
       <c r="H336" s="3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
@@ -9773,16 +9773,16 @@
         <v>37</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E337" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F337" s="4">
-        <v>0.33800000000000002</v>
+        <v>9</v>
       </c>
       <c r="G337" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H337" s="3" t="s">
         <v>30</v>
@@ -9799,19 +9799,19 @@
         <v>37</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E338" s="4">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="F338" s="4">
-        <v>4.8</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="G338" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H338" s="3" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
@@ -9825,16 +9825,16 @@
         <v>37</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E339" s="4">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="F339" s="4">
-        <v>0.1</v>
+        <v>4.8</v>
       </c>
       <c r="G339" s="4">
-        <v>0.8</v>
+        <v>10</v>
       </c>
       <c r="H339" s="3" t="s">
         <v>166</v>
@@ -9851,19 +9851,19 @@
         <v>37</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E340" s="4">
-        <v>3.4</v>
+        <v>0.3</v>
       </c>
       <c r="F340" s="4">
-        <v>8.6</v>
+        <v>0.1</v>
       </c>
       <c r="G340" s="4">
-        <v>9</v>
+        <v>0.8</v>
       </c>
       <c r="H340" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
@@ -9877,16 +9877,16 @@
         <v>37</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E341" s="4">
-        <v>0.2</v>
+        <v>3.4</v>
       </c>
       <c r="F341" s="4">
-        <v>0.48</v>
+        <v>8.6</v>
       </c>
       <c r="G341" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H341" s="3" t="s">
         <v>181</v>
@@ -9900,22 +9900,22 @@
         <v>85</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E342" s="4">
-        <v>45</v>
+        <v>0.2</v>
       </c>
       <c r="F342" s="4">
-        <v>50.6</v>
+        <v>0.48</v>
       </c>
       <c r="G342" s="4">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="H342" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
@@ -9929,16 +9929,16 @@
         <v>39</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E343" s="4">
-        <v>1.89</v>
+        <v>45</v>
       </c>
       <c r="F343" s="4">
-        <v>2.2770000000000001</v>
+        <v>50.6</v>
       </c>
       <c r="G343" s="4">
-        <v>8.5749999999999993</v>
+        <v>75</v>
       </c>
       <c r="H343" s="3" t="s">
         <v>180</v>
@@ -9955,19 +9955,19 @@
         <v>39</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E344" s="4">
-        <v>45</v>
+        <v>1.89</v>
       </c>
       <c r="F344" s="4">
-        <v>58.8</v>
+        <v>2.2770000000000001</v>
       </c>
       <c r="G344" s="4">
-        <v>75</v>
+        <v>8.5749999999999993</v>
       </c>
       <c r="H344" s="3" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
@@ -9981,16 +9981,16 @@
         <v>39</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E345" s="4">
-        <v>1.89</v>
+        <v>45</v>
       </c>
       <c r="F345" s="4">
-        <v>2.5284</v>
+        <v>58.8</v>
       </c>
       <c r="G345" s="4">
-        <v>8.5749999999999993</v>
+        <v>75</v>
       </c>
       <c r="H345" s="3" t="s">
         <v>149</v>
@@ -10007,19 +10007,19 @@
         <v>39</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E346" s="4">
-        <v>41</v>
+        <v>1.89</v>
       </c>
       <c r="F346" s="4">
-        <v>57.8</v>
+        <v>2.5284</v>
       </c>
       <c r="G346" s="4">
-        <v>70.7</v>
+        <v>8.5749999999999993</v>
       </c>
       <c r="H346" s="3" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
@@ -10033,16 +10033,16 @@
         <v>39</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E347" s="4">
-        <v>1.8</v>
+        <v>41</v>
       </c>
       <c r="F347" s="4">
-        <v>2.83</v>
+        <v>57.8</v>
       </c>
       <c r="G347" s="4">
-        <v>6.98</v>
+        <v>70.7</v>
       </c>
       <c r="H347" s="3" t="s">
         <v>173</v>
@@ -10059,19 +10059,19 @@
         <v>39</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E348" s="4">
-        <v>40</v>
+        <v>1.8</v>
       </c>
       <c r="F348" s="4">
-        <v>54</v>
+        <v>2.83</v>
       </c>
       <c r="G348" s="4">
-        <v>80</v>
+        <v>6.98</v>
       </c>
       <c r="H348" s="3" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
@@ -10085,16 +10085,16 @@
         <v>39</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E349" s="4">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F349" s="4">
-        <v>2.1</v>
+        <v>54</v>
       </c>
       <c r="G349" s="4">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="H349" s="3" t="s">
         <v>145</v>
@@ -10111,19 +10111,19 @@
         <v>39</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E350" s="4">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="F350" s="4">
-        <v>48.8</v>
+        <v>2.1</v>
       </c>
       <c r="G350" s="4">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="H350" s="3" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
@@ -10137,16 +10137,16 @@
         <v>39</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E351" s="4">
-        <v>1.5</v>
+        <v>40</v>
       </c>
       <c r="F351" s="4">
-        <v>2.75</v>
+        <v>48.8</v>
       </c>
       <c r="G351" s="4">
-        <v>7.5</v>
+        <v>75</v>
       </c>
       <c r="H351" s="3" t="s">
         <v>174</v>
@@ -10163,19 +10163,19 @@
         <v>39</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E352" s="4">
-        <v>45</v>
+        <v>1.5</v>
       </c>
       <c r="F352" s="4">
-        <v>51.4</v>
+        <v>2.75</v>
       </c>
       <c r="G352" s="4">
-        <v>70</v>
+        <v>7.5</v>
       </c>
       <c r="H352" s="3" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
@@ -10189,16 +10189,16 @@
         <v>39</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E353" s="4">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="F353" s="4">
-        <v>1.7</v>
+        <v>51.4</v>
       </c>
       <c r="G353" s="4">
-        <v>7.5</v>
+        <v>70</v>
       </c>
       <c r="H353" s="3" t="s">
         <v>89</v>
@@ -10215,19 +10215,19 @@
         <v>39</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E354" s="4">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="F354" s="4">
-        <v>48</v>
+        <v>1.7</v>
       </c>
       <c r="G354" s="4">
-        <v>70</v>
+        <v>7.5</v>
       </c>
       <c r="H354" s="3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
@@ -10241,16 +10241,16 @@
         <v>39</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E355" s="4">
-        <v>1.8</v>
+        <v>35</v>
       </c>
       <c r="F355" s="4">
-        <v>1.8049999999999999</v>
+        <v>48</v>
       </c>
       <c r="G355" s="4">
-        <v>7.5</v>
+        <v>70</v>
       </c>
       <c r="H355" s="3" t="s">
         <v>30</v>
@@ -10267,19 +10267,19 @@
         <v>39</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E356" s="4">
-        <v>40</v>
+        <v>1.8</v>
       </c>
       <c r="F356" s="4">
-        <v>55.9</v>
+        <v>1.8049999999999999</v>
       </c>
       <c r="G356" s="4">
-        <v>75</v>
+        <v>7.5</v>
       </c>
       <c r="H356" s="3" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
@@ -10293,16 +10293,16 @@
         <v>39</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E357" s="4">
-        <v>1.5</v>
+        <v>40</v>
       </c>
       <c r="F357" s="4">
-        <v>3.14</v>
+        <v>55.9</v>
       </c>
       <c r="G357" s="4">
-        <v>7.5</v>
+        <v>75</v>
       </c>
       <c r="H357" s="3" t="s">
         <v>181</v>
@@ -10310,28 +10310,28 @@
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="E358" s="4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F358" s="4">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="G358" s="4">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H358" s="3" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="H359" s="3" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
@@ -10383,7 +10383,7 @@
         <v>0</v>
       </c>
       <c r="H360" s="3" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
@@ -10409,7 +10409,7 @@
         <v>0</v>
       </c>
       <c r="H361" s="3" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
@@ -10435,59 +10435,59 @@
         <v>0</v>
       </c>
       <c r="H362" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="E363" s="4">
         <v>0</v>
       </c>
       <c r="F363" s="4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G363" s="4">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="H363" s="3" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="E364" s="4">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F364" s="4">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="G364" s="4">
-        <v>8.5</v>
+        <v>53</v>
       </c>
       <c r="H364" s="3" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
@@ -10504,16 +10504,16 @@
         <v>156</v>
       </c>
       <c r="E365" s="4">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="F365" s="4">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="G365" s="4">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="H365" s="3" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
@@ -10530,7 +10530,7 @@
         <v>156</v>
       </c>
       <c r="E366" s="4">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="F366" s="4">
         <v>5.5</v>
@@ -10539,7 +10539,7 @@
         <v>7.5</v>
       </c>
       <c r="H366" s="3" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
@@ -10556,16 +10556,16 @@
         <v>156</v>
       </c>
       <c r="E367" s="4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F367" s="4">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="G367" s="4">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H367" s="3" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
@@ -10582,42 +10582,42 @@
         <v>156</v>
       </c>
       <c r="E368" s="4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F368" s="4">
         <v>6.5</v>
       </c>
       <c r="G368" s="4">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="H368" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="E369" s="4">
-        <v>2.6970000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="F369" s="4">
-        <v>3.7509999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="G369" s="4">
-        <v>4.4950000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="H369" s="3" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
@@ -10637,13 +10637,13 @@
         <v>2.6970000000000001</v>
       </c>
       <c r="F370" s="4">
-        <v>3.6269999999999998</v>
+        <v>3.7509999999999999</v>
       </c>
       <c r="G370" s="4">
         <v>4.4950000000000001</v>
       </c>
       <c r="H370" s="3" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
@@ -10660,16 +10660,16 @@
         <v>56</v>
       </c>
       <c r="E371" s="4">
-        <v>2.5</v>
+        <v>2.6970000000000001</v>
       </c>
       <c r="F371" s="4">
-        <v>4.5</v>
+        <v>3.6269999999999998</v>
       </c>
       <c r="G371" s="4">
-        <v>5</v>
+        <v>4.4950000000000001</v>
       </c>
       <c r="H371" s="3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
@@ -10677,25 +10677,25 @@
         <v>82</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D372" s="3" t="s">
-        <v>32</v>
+        <v>123</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="E372" s="4">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F372" s="4">
-        <v>14.8</v>
+        <v>4.5</v>
       </c>
       <c r="G372" s="4">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H372" s="3" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
@@ -10712,16 +10712,16 @@
         <v>32</v>
       </c>
       <c r="E373" s="4">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="F373" s="4">
-        <v>12</v>
+        <v>14.8</v>
       </c>
       <c r="G373" s="4">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="H373" s="3" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
@@ -10738,16 +10738,16 @@
         <v>32</v>
       </c>
       <c r="E374" s="4">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="F374" s="4">
-        <v>14.8</v>
+        <v>12</v>
       </c>
       <c r="G374" s="4">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="H374" s="3" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
@@ -10767,13 +10767,13 @@
         <v>10</v>
       </c>
       <c r="F375" s="4">
-        <v>13.6</v>
+        <v>14.8</v>
       </c>
       <c r="G375" s="4">
         <v>18</v>
       </c>
       <c r="H375" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
@@ -10790,16 +10790,16 @@
         <v>32</v>
       </c>
       <c r="E376" s="4">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="F376" s="4">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="G376" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H376" s="3" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
@@ -10810,19 +10810,19 @@
         <v>155</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D377" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D377" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E377" s="4">
-        <v>0.1</v>
+        <v>10.5</v>
       </c>
       <c r="F377" s="4">
-        <v>0.13800000000000001</v>
+        <v>13.3</v>
       </c>
       <c r="G377" s="4">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="H377" s="3" t="s">
         <v>166</v>
@@ -10836,22 +10836,22 @@
         <v>155</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E378" s="4">
-        <v>130</v>
+        <v>0.1</v>
       </c>
       <c r="F378" s="4">
-        <v>209</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="G378" s="4">
-        <v>450</v>
+        <v>0.5</v>
       </c>
       <c r="H378" s="3" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
@@ -10868,16 +10868,16 @@
         <v>72</v>
       </c>
       <c r="E379" s="4">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F379" s="4">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="G379" s="4">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="H379" s="3" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
@@ -10894,16 +10894,16 @@
         <v>72</v>
       </c>
       <c r="E380" s="4">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="F380" s="4">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="G380" s="4">
-        <v>308</v>
+        <v>400</v>
       </c>
       <c r="H380" s="3" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
@@ -10920,16 +10920,16 @@
         <v>72</v>
       </c>
       <c r="E381" s="4">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="F381" s="4">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="G381" s="4">
-        <v>400</v>
+        <v>308</v>
       </c>
       <c r="H381" s="3" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
@@ -10946,16 +10946,16 @@
         <v>72</v>
       </c>
       <c r="E382" s="4">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F382" s="4">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="G382" s="4">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="H382" s="3" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
@@ -10972,16 +10972,16 @@
         <v>72</v>
       </c>
       <c r="E383" s="4">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F383" s="4">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="G383" s="4">
-        <v>345</v>
+        <v>440</v>
       </c>
       <c r="H383" s="3" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
@@ -11001,13 +11001,13 @@
         <v>140</v>
       </c>
       <c r="F384" s="4">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G384" s="4">
         <v>345</v>
       </c>
       <c r="H384" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
@@ -11024,16 +11024,16 @@
         <v>72</v>
       </c>
       <c r="E385" s="4">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F385" s="4">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G385" s="4">
-        <v>400</v>
+        <v>345</v>
       </c>
       <c r="H385" s="3" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
@@ -11050,16 +11050,16 @@
         <v>72</v>
       </c>
       <c r="E386" s="4">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="F386" s="4">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G386" s="4">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="H386" s="3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
@@ -11076,16 +11076,16 @@
         <v>72</v>
       </c>
       <c r="E387" s="4">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F387" s="4">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="G387" s="4">
-        <v>336</v>
+        <v>450</v>
       </c>
       <c r="H387" s="3" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
@@ -11102,16 +11102,16 @@
         <v>72</v>
       </c>
       <c r="E388" s="4">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F388" s="4">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="G388" s="4">
-        <v>400</v>
+        <v>336</v>
       </c>
       <c r="H388" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
@@ -11119,25 +11119,25 @@
         <v>82</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E389" s="4">
-        <v>3.5</v>
+        <v>130</v>
       </c>
       <c r="F389" s="4">
-        <v>4.3899999999999997</v>
+        <v>240</v>
       </c>
       <c r="G389" s="4">
-        <v>5.0999999999999996</v>
+        <v>400</v>
       </c>
       <c r="H389" s="3" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
@@ -11157,13 +11157,13 @@
         <v>3.5</v>
       </c>
       <c r="F390" s="4">
-        <v>4</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="G390" s="4">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H390" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
@@ -11180,16 +11180,16 @@
         <v>58</v>
       </c>
       <c r="E391" s="4">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="F391" s="4">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G391" s="4">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="H391" s="3" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
@@ -11206,16 +11206,16 @@
         <v>58</v>
       </c>
       <c r="E392" s="4">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="F392" s="4">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="G392" s="4">
-        <v>5.0999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="H392" s="3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
@@ -11235,13 +11235,13 @@
         <v>3.5</v>
       </c>
       <c r="F393" s="4">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G393" s="4">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H393" s="3" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
@@ -11249,25 +11249,25 @@
         <v>82</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E394" s="4">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F394" s="4">
-        <v>0.43</v>
+        <v>3.9</v>
       </c>
       <c r="G394" s="4">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="H394" s="3" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
@@ -11275,25 +11275,25 @@
         <v>82</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E395" s="4">
         <v>0</v>
       </c>
       <c r="F395" s="4">
-        <v>86</v>
+        <v>0.43</v>
       </c>
       <c r="G395" s="4">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="H395" s="3" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
@@ -11301,25 +11301,25 @@
         <v>82</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D396" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D396" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E396" s="4">
         <v>0</v>
       </c>
       <c r="F396" s="4">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G396" s="4">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="H396" s="3" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
@@ -11332,20 +11332,20 @@
       <c r="C397" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D397" s="2" t="s">
+      <c r="D397" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E397" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F397" s="4">
-        <v>12.3</v>
+        <v>13</v>
       </c>
       <c r="G397" s="4">
-        <v>13.6</v>
+        <v>22</v>
       </c>
       <c r="H397" s="3" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
@@ -11358,20 +11358,20 @@
       <c r="C398" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D398" s="3" t="s">
+      <c r="D398" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E398" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F398" s="4">
         <v>12.3</v>
       </c>
       <c r="G398" s="4">
-        <v>15</v>
+        <v>13.6</v>
       </c>
       <c r="H398" s="3" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
@@ -11388,16 +11388,16 @@
         <v>32</v>
       </c>
       <c r="E399" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F399" s="4">
-        <v>13.4</v>
+        <v>12.3</v>
       </c>
       <c r="G399" s="4">
         <v>15</v>
       </c>
       <c r="H399" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
@@ -11417,13 +11417,13 @@
         <v>10</v>
       </c>
       <c r="F400" s="4">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="G400" s="4">
         <v>15</v>
       </c>
       <c r="H400" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
@@ -11436,20 +11436,20 @@
       <c r="C401" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D401" s="2" t="s">
+      <c r="D401" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E401" s="4">
-        <v>12.1</v>
+        <v>10</v>
       </c>
       <c r="F401" s="4">
-        <v>12.7</v>
+        <v>13.3</v>
       </c>
       <c r="G401" s="4">
-        <v>16.2</v>
+        <v>15</v>
       </c>
       <c r="H401" s="3" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
@@ -11466,16 +11466,16 @@
         <v>32</v>
       </c>
       <c r="E402" s="4">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="F402" s="4">
-        <v>12.1</v>
+        <v>12.7</v>
       </c>
       <c r="G402" s="4">
-        <v>18</v>
+        <v>16.2</v>
       </c>
       <c r="H402" s="3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
@@ -11492,16 +11492,16 @@
         <v>32</v>
       </c>
       <c r="E403" s="4">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="F403" s="4">
-        <v>13.3</v>
+        <v>12.1</v>
       </c>
       <c r="G403" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H403" s="3" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
@@ -11518,16 +11518,16 @@
         <v>32</v>
       </c>
       <c r="E404" s="4">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="F404" s="4">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="G404" s="4">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="H404" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
@@ -11535,25 +11535,25 @@
         <v>82</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="E405" s="4">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="F405" s="4">
-        <v>0.03</v>
+        <v>13.2</v>
       </c>
       <c r="G405" s="4">
-        <v>8</v>
+        <v>14.5</v>
       </c>
       <c r="H405" s="3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
@@ -11573,13 +11573,13 @@
         <v>0</v>
       </c>
       <c r="F406" s="4">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G406" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H406" s="3" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
@@ -11592,20 +11592,20 @@
       <c r="C407" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D407" s="3" t="s">
+      <c r="D407" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E407" s="4">
         <v>0</v>
       </c>
       <c r="F407" s="4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G407" s="4">
         <v>5</v>
       </c>
       <c r="H407" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
@@ -11618,20 +11618,20 @@
       <c r="C408" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D408" s="2" t="s">
+      <c r="D408" s="3" t="s">
         <v>111</v>
       </c>
       <c r="E408" s="4">
         <v>0</v>
       </c>
       <c r="F408" s="4">
-        <v>0.61</v>
+        <v>0.4</v>
       </c>
       <c r="G408" s="4">
         <v>5</v>
       </c>
       <c r="H408" s="3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
@@ -11651,13 +11651,13 @@
         <v>0</v>
       </c>
       <c r="F409" s="4">
-        <v>0.5</v>
+        <v>0.61</v>
       </c>
       <c r="G409" s="4">
         <v>5</v>
       </c>
       <c r="H409" s="3" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
@@ -11677,13 +11677,13 @@
         <v>0</v>
       </c>
       <c r="F410" s="4">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G410" s="4">
         <v>5</v>
       </c>
       <c r="H410" s="3" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
@@ -11691,25 +11691,25 @@
         <v>82</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="E411" s="4">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="F411" s="4">
-        <v>140.19999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="G411" s="4">
-        <v>146</v>
+        <v>5</v>
       </c>
       <c r="H411" s="3" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
@@ -11726,16 +11726,16 @@
         <v>58</v>
       </c>
       <c r="E412" s="4">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F412" s="4">
-        <v>140</v>
+        <v>140.19999999999999</v>
       </c>
       <c r="G412" s="4">
+        <v>146</v>
+      </c>
+      <c r="H412" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="H412" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
@@ -11748,20 +11748,20 @@
       <c r="C413" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D413" s="3" t="s">
+      <c r="D413" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E413" s="4">
         <v>135</v>
       </c>
       <c r="F413" s="4">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G413" s="4">
         <v>145</v>
       </c>
       <c r="H413" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
@@ -11774,20 +11774,20 @@
       <c r="C414" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D414" s="2" t="s">
+      <c r="D414" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E414" s="4">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F414" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G414" s="4">
         <v>145</v>
       </c>
       <c r="H414" s="3" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
@@ -11804,16 +11804,16 @@
         <v>58</v>
       </c>
       <c r="E415" s="4">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F415" s="4">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G415" s="4">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H415" s="3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
@@ -11833,13 +11833,13 @@
         <v>135</v>
       </c>
       <c r="F416" s="4">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G416" s="4">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H416" s="3" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
@@ -11847,25 +11847,25 @@
         <v>82</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E417" s="4">
-        <v>1.58</v>
+        <v>135</v>
       </c>
       <c r="F417" s="4">
-        <v>2.81</v>
+        <v>141</v>
       </c>
       <c r="G417" s="4">
-        <v>3.91</v>
+        <v>145</v>
       </c>
       <c r="H417" s="3" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
@@ -11882,16 +11882,16 @@
         <v>75</v>
       </c>
       <c r="E418" s="4">
-        <v>1.5624</v>
+        <v>1.58</v>
       </c>
       <c r="F418" s="4">
-        <v>2.7993000000000001</v>
+        <v>2.81</v>
       </c>
       <c r="G418" s="4">
-        <v>3.9060000000000001</v>
+        <v>3.91</v>
       </c>
       <c r="H418" s="3" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
@@ -11902,22 +11902,22 @@
         <v>130</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E419" s="4">
-        <v>0.69899999999999995</v>
+        <v>1.5624</v>
       </c>
       <c r="F419" s="4">
-        <v>1.056</v>
+        <v>2.7993000000000001</v>
       </c>
       <c r="G419" s="4">
-        <v>1.476</v>
+        <v>3.9060000000000001</v>
       </c>
       <c r="H419" s="3" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
@@ -11934,16 +11934,16 @@
         <v>70</v>
       </c>
       <c r="E420" s="4">
-        <v>0.71</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="F420" s="4">
-        <v>1.2</v>
+        <v>1.056</v>
       </c>
       <c r="G420" s="4">
-        <v>1.85</v>
+        <v>1.476</v>
       </c>
       <c r="H420" s="3" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
@@ -11960,16 +11960,16 @@
         <v>70</v>
       </c>
       <c r="E421" s="4">
-        <v>0.69899999999999995</v>
+        <v>0.71</v>
       </c>
       <c r="F421" s="4">
-        <v>1.048</v>
+        <v>1.2</v>
       </c>
       <c r="G421" s="4">
-        <v>1.476</v>
+        <v>1.85</v>
       </c>
       <c r="H421" s="3" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
@@ -11980,22 +11980,22 @@
         <v>130</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="E422" s="4">
-        <v>0.47</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="F422" s="4">
-        <v>7.16</v>
+        <v>1.048</v>
       </c>
       <c r="G422" s="4">
-        <v>9.8000000000000007</v>
+        <v>1.476</v>
       </c>
       <c r="H422" s="3" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
@@ -12003,25 +12003,25 @@
         <v>82</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D423" s="3" t="s">
-        <v>156</v>
+        <v>68</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E423" s="4">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="F423" s="4">
-        <v>0.154</v>
-      </c>
-      <c r="G423" s="4" t="s">
-        <v>64</v>
+        <v>7.16</v>
+      </c>
+      <c r="G423" s="4">
+        <v>9.8000000000000007</v>
       </c>
       <c r="H423" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
@@ -12041,13 +12041,13 @@
         <v>0</v>
       </c>
       <c r="F424" s="4">
-        <v>0.156</v>
+        <v>0.154</v>
       </c>
       <c r="G424" s="4" t="s">
         <v>64</v>
       </c>
       <c r="H424" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
@@ -12055,25 +12055,25 @@
         <v>82</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D425" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="E425" s="4">
-        <v>0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="F425" s="4">
-        <v>1.984</v>
-      </c>
-      <c r="G425" s="4">
-        <v>4.78</v>
+        <v>0.156</v>
+      </c>
+      <c r="G425" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="H425" s="3" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
@@ -12090,16 +12090,16 @@
         <v>121</v>
       </c>
       <c r="E426" s="4">
-        <v>0.3</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F426" s="4">
-        <v>0.67</v>
+        <v>1.984</v>
       </c>
       <c r="G426" s="4">
-        <v>4.3</v>
+        <v>4.78</v>
       </c>
       <c r="H426" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
@@ -12119,13 +12119,13 @@
         <v>0.3</v>
       </c>
       <c r="F427" s="4">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="G427" s="4">
         <v>4.3</v>
       </c>
       <c r="H427" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
@@ -12142,16 +12142,16 @@
         <v>121</v>
       </c>
       <c r="E428" s="4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F428" s="4">
-        <v>0.72</v>
+        <v>0.53</v>
       </c>
       <c r="G428" s="4">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="H428" s="3" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
@@ -12168,16 +12168,16 @@
         <v>121</v>
       </c>
       <c r="E429" s="4">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F429" s="4">
-        <v>0.9</v>
+        <v>0.72</v>
       </c>
       <c r="G429" s="4">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="H429" s="3" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
@@ -12185,25 +12185,25 @@
         <v>82</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="E430" s="4">
-        <v>64</v>
+        <v>0.3</v>
       </c>
       <c r="F430" s="4">
-        <v>72.3</v>
+        <v>0.9</v>
       </c>
       <c r="G430" s="4">
-        <v>83</v>
+        <v>4.3</v>
       </c>
       <c r="H430" s="3" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
@@ -12220,16 +12220,16 @@
         <v>92</v>
       </c>
       <c r="E431" s="4">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F431" s="4">
-        <v>71</v>
+        <v>72.3</v>
       </c>
       <c r="G431" s="4">
         <v>83</v>
       </c>
       <c r="H431" s="3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
@@ -12246,16 +12246,16 @@
         <v>92</v>
       </c>
       <c r="E432" s="4">
-        <v>6.2</v>
+        <v>60</v>
       </c>
       <c r="F432" s="4">
-        <v>7.85</v>
+        <v>71</v>
       </c>
       <c r="G432" s="4">
-        <v>8.3000000000000007</v>
+        <v>83</v>
       </c>
       <c r="H432" s="3" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
@@ -12263,25 +12263,25 @@
         <v>82</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="E433" s="4">
-        <v>45</v>
+        <v>6.2</v>
       </c>
       <c r="F433" s="4">
-        <v>68</v>
+        <v>7.85</v>
       </c>
       <c r="G433" s="4">
-        <v>185</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H433" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
@@ -12301,13 +12301,13 @@
         <v>45</v>
       </c>
       <c r="F434" s="4">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G434" s="4">
         <v>185</v>
       </c>
       <c r="H434" s="3" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
@@ -12324,16 +12324,16 @@
         <v>56</v>
       </c>
       <c r="E435" s="4">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F435" s="4">
-        <v>50.444999999999993</v>
+        <v>55</v>
       </c>
       <c r="G435" s="4">
-        <v>150.44999999999999</v>
+        <v>185</v>
       </c>
       <c r="H435" s="3" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
@@ -12353,13 +12353,13 @@
         <v>0</v>
       </c>
       <c r="F436" s="4">
-        <v>38.94</v>
+        <v>50.444999999999993</v>
       </c>
       <c r="G436" s="4">
         <v>150.44999999999999</v>
       </c>
       <c r="H436" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
@@ -12379,13 +12379,13 @@
         <v>0</v>
       </c>
       <c r="F437" s="4">
-        <v>44.25</v>
+        <v>38.94</v>
       </c>
       <c r="G437" s="4">
         <v>150.44999999999999</v>
       </c>
       <c r="H437" s="3" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
@@ -12405,13 +12405,13 @@
         <v>0</v>
       </c>
       <c r="F438" s="4">
-        <v>47</v>
+        <v>44.25</v>
       </c>
       <c r="G438" s="4">
-        <v>150</v>
+        <v>150.44999999999999</v>
       </c>
       <c r="H438" s="3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
@@ -12431,13 +12431,13 @@
         <v>0</v>
       </c>
       <c r="F439" s="4">
-        <v>43.4</v>
+        <v>47</v>
       </c>
       <c r="G439" s="4">
-        <v>177.15</v>
+        <v>150</v>
       </c>
       <c r="H439" s="3" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
@@ -12454,16 +12454,16 @@
         <v>56</v>
       </c>
       <c r="E440" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F440" s="4">
-        <v>88</v>
+        <v>43.4</v>
       </c>
       <c r="G440" s="4">
-        <v>150</v>
+        <v>177.15</v>
       </c>
       <c r="H440" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
@@ -12471,25 +12471,25 @@
         <v>82</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D441" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E441" s="4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F441" s="4">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="G441" s="4">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H441" s="3" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
@@ -12506,16 +12506,16 @@
         <v>56</v>
       </c>
       <c r="E442" s="4">
-        <v>19.219200000000001</v>
+        <v>20</v>
       </c>
       <c r="F442" s="4">
-        <v>22.822800000000001</v>
+        <v>30</v>
       </c>
       <c r="G442" s="4">
-        <v>43.843800000000002</v>
+        <v>50</v>
       </c>
       <c r="H442" s="3" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
@@ -12532,16 +12532,16 @@
         <v>56</v>
       </c>
       <c r="E443" s="4">
-        <v>17</v>
+        <v>19.219200000000001</v>
       </c>
       <c r="F443" s="4">
-        <v>24</v>
+        <v>22.822800000000001</v>
       </c>
       <c r="G443" s="4">
-        <v>51</v>
+        <v>43.843800000000002</v>
       </c>
       <c r="H443" s="3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
@@ -12558,16 +12558,16 @@
         <v>56</v>
       </c>
       <c r="E444" s="4">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F444" s="4">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G444" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H444" s="3" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
@@ -12578,22 +12578,22 @@
         <v>162</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D445" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E445" s="4">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="F445" s="4">
-        <v>5.0999999999999996</v>
+        <v>48</v>
       </c>
       <c r="G445" s="4">
-        <v>7.5</v>
+        <v>50</v>
       </c>
       <c r="H445" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
@@ -12613,13 +12613,13 @@
         <v>2.5</v>
       </c>
       <c r="F446" s="4">
-        <v>4.0999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G446" s="4">
         <v>7.5</v>
       </c>
       <c r="H446" s="3" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
@@ -12636,16 +12636,16 @@
         <v>56</v>
       </c>
       <c r="E447" s="4">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F447" s="4">
-        <v>4.9055999999999997</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G447" s="4">
-        <v>7.0559999999999992</v>
+        <v>7.5</v>
       </c>
       <c r="H447" s="3" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
@@ -12662,16 +12662,16 @@
         <v>56</v>
       </c>
       <c r="E448" s="4">
-        <v>3.5279999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="F448" s="4">
-        <v>4.1495999999999995</v>
+        <v>4.9055999999999997</v>
       </c>
       <c r="G448" s="4">
         <v>7.0559999999999992</v>
       </c>
       <c r="H448" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
@@ -12691,13 +12691,13 @@
         <v>3.5279999999999996</v>
       </c>
       <c r="F449" s="4">
-        <v>3.9983999999999997</v>
+        <v>4.1495999999999995</v>
       </c>
       <c r="G449" s="4">
         <v>7.0559999999999992</v>
       </c>
       <c r="H449" s="3" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
@@ -12714,16 +12714,16 @@
         <v>56</v>
       </c>
       <c r="E450" s="4">
-        <v>3.5</v>
+        <v>3.5279999999999996</v>
       </c>
       <c r="F450" s="4">
-        <v>4.0999999999999996</v>
+        <v>3.9983999999999997</v>
       </c>
       <c r="G450" s="4">
-        <v>7.2</v>
+        <v>7.0559999999999992</v>
       </c>
       <c r="H450" s="3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
@@ -12740,16 +12740,16 @@
         <v>56</v>
       </c>
       <c r="E451" s="4">
-        <v>3.5303</v>
+        <v>3.5</v>
       </c>
       <c r="F451" s="4">
-        <v>4.0346000000000002</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G451" s="4">
-        <v>7.0606</v>
+        <v>7.2</v>
       </c>
       <c r="H451" s="3" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
@@ -12766,42 +12766,42 @@
         <v>56</v>
       </c>
       <c r="E452" s="4">
-        <v>2.4</v>
+        <v>3.5303</v>
       </c>
       <c r="F452" s="4">
-        <v>4.5999999999999996</v>
+        <v>4.0346000000000002</v>
       </c>
       <c r="G452" s="4">
-        <v>7</v>
+        <v>7.0606</v>
       </c>
       <c r="H452" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="D453" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E453" s="4">
-        <v>0.1</v>
+        <v>2.4</v>
       </c>
       <c r="F453" s="4">
-        <v>0.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G453" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H453" s="3" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
@@ -12818,16 +12818,16 @@
         <v>56</v>
       </c>
       <c r="E454" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F454" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G454" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H454" s="3" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
@@ -12853,7 +12853,7 @@
         <v>0</v>
       </c>
       <c r="H455" s="3" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
@@ -12879,7 +12879,7 @@
         <v>0</v>
       </c>
       <c r="H456" s="3" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
@@ -12905,33 +12905,33 @@
         <v>0</v>
       </c>
       <c r="H457" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="E458" s="4">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F458" s="4">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="G458" s="4">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="H458" s="3" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
@@ -12942,22 +12942,22 @@
         <v>127</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="E459" s="4">
-        <v>20.03</v>
+        <v>35</v>
       </c>
       <c r="F459" s="4">
-        <v>17.2258</v>
+        <v>116</v>
       </c>
       <c r="G459" s="4">
-        <v>60.09</v>
+        <v>158</v>
       </c>
       <c r="H459" s="3" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
@@ -12977,13 +12977,13 @@
         <v>20.03</v>
       </c>
       <c r="F460" s="4">
-        <v>12.8192</v>
+        <v>17.2258</v>
       </c>
       <c r="G460" s="4">
         <v>60.09</v>
       </c>
       <c r="H460" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
@@ -13000,16 +13000,16 @@
         <v>44</v>
       </c>
       <c r="E461" s="4">
-        <v>30</v>
+        <v>20.03</v>
       </c>
       <c r="F461" s="4">
-        <v>20.5</v>
+        <v>12.8192</v>
       </c>
       <c r="G461" s="4">
-        <v>96</v>
+        <v>60.09</v>
       </c>
       <c r="H461" s="3" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
@@ -13026,16 +13026,16 @@
         <v>44</v>
       </c>
       <c r="E462" s="4">
-        <v>20.032</v>
+        <v>30</v>
       </c>
       <c r="F462" s="4">
-        <v>23.236999999999998</v>
+        <v>20.5</v>
       </c>
       <c r="G462" s="4">
-        <v>60.095999999999997</v>
+        <v>96</v>
       </c>
       <c r="H462" s="3" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
@@ -13046,22 +13046,22 @@
         <v>127</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="E463" s="4">
-        <v>298.18799999999999</v>
+        <v>20.032</v>
       </c>
       <c r="F463" s="4">
-        <v>451.34819999999996</v>
-      </c>
-      <c r="G463" s="4" t="s">
-        <v>64</v>
+        <v>23.236999999999998</v>
+      </c>
+      <c r="G463" s="4">
+        <v>60.095999999999997</v>
       </c>
       <c r="H463" s="3" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
@@ -13081,13 +13081,13 @@
         <v>298.18799999999999</v>
       </c>
       <c r="F464" s="4">
-        <v>356.47019999999998</v>
+        <v>451.34819999999996</v>
       </c>
       <c r="G464" s="4" t="s">
         <v>64</v>
       </c>
       <c r="H464" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
@@ -13104,16 +13104,16 @@
         <v>75</v>
       </c>
       <c r="E465" s="4">
-        <v>200</v>
+        <v>298.18799999999999</v>
       </c>
       <c r="F465" s="4">
-        <v>419</v>
-      </c>
-      <c r="G465" s="4">
-        <v>950</v>
+        <v>356.47019999999998</v>
+      </c>
+      <c r="G465" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="H465" s="3" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
@@ -13130,16 +13130,16 @@
         <v>75</v>
       </c>
       <c r="E466" s="4">
-        <v>298.10199999999998</v>
+        <v>200</v>
       </c>
       <c r="F466" s="4">
-        <v>371.27300000000002</v>
-      </c>
-      <c r="G466" s="4" t="s">
-        <v>64</v>
+        <v>419</v>
+      </c>
+      <c r="G466" s="4">
+        <v>950</v>
       </c>
       <c r="H466" s="3" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
@@ -13147,24 +13147,50 @@
         <v>82</v>
       </c>
       <c r="B467" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C467" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D467" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E467" s="4">
+        <v>298.10199999999998</v>
+      </c>
+      <c r="F467" s="4">
+        <v>371.27300000000002</v>
+      </c>
+      <c r="G467" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H467" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A468" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B468" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C467" s="3" t="s">
+      <c r="C468" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D467" s="2" t="s">
+      <c r="D468" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E467" s="4">
+      <c r="E468" s="4">
         <v>10.7</v>
       </c>
-      <c r="F467" s="4">
+      <c r="F468" s="4">
         <v>13.7</v>
       </c>
-      <c r="G467" s="4">
+      <c r="G468" s="4">
         <v>23</v>
       </c>
-      <c r="H467" s="3" t="s">
+      <c r="H468" s="3" t="s">
         <v>166</v>
       </c>
     </row>
@@ -13175,7 +13201,7 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F299 F301:F1048576">
+  <conditionalFormatting sqref="F1:F300 F302:F1048576">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="notBetween">
       <formula>$E1</formula>
       <formula>$G1</formula>
@@ -13193,9 +13219,9 @@
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F224 F245">
+  <conditionalFormatting sqref="F225 F246">
     <cfRule type="cellIs" dxfId="2" priority="33" operator="notBetween">
-      <formula>$G224</formula>
+      <formula>$G225</formula>
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
